--- a/500all/speech_level/speeches_CHRG-114hhrg95993.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95993.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="264">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400320</t>
   </si>
   <si>
-    <t>Joseph R. Pitts</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pitts. The subcommittee will come to order. The chair will recognize himself for an opening statement.    Over the past several years, this committee has focused on understanding and responding to the need to modernize Medicare's financing and payment structures. Today's hearing will give members and stakeholders an opportunity to examine the current state of post-acute care, PAC, for Medicare beneficiaries and discuss ways it can be improved.    Post-acute care is care that is provided to individuals who need additional help recuperating from an acute illness or serious medical procedure usually after discharge from hospital care. Post-acute care providers such as skilled nursing facilities, SNFs, inpatient rehabilitation facilities, IRFs, long-term care hospitals, home health agencies, and hospices are reimbursed by Medicare with different payment systems, which were originally designed to focus on a phase of a patient's illness in a specific site of service. As a result, payments across post-acute care settings may differ considerably even though the clinical characteristics of the patient and the services delivered may be very similar.    According to the Medicare Payment Advisory Commission, MedPAC, Medicare's payments to PAC providers totaled $59 billion in the year 2013. For patients who are hospitalized for exacerbations of chronic conditions, such as congestive heart failure, Medicare spends nearly as much on post-acute care and readmissions in the first 30 days after a patient is discharged as it does for the initial hospital admission. Medicare payments for post-acute care have grown faster than most other categories of spending. For example, total Medicare spending for patients hospitalized with myocardial infarction, congestive heart failure, or hip fracture grew by 1.5 to 2 percent each year between 1994 and 2009, while spending on post-acute care for those patients grew by 4 \\1/2\\ to 8 \\1/2\\ percent per year.    There are many opportunities for the Medicare program to save taxpayer dollars and improve seniors' quality of care through better management of post-acute care. One way is to make sure patients are treated in the most cost effective clinically appropriate setting. The current model has significant reimbursement disparities for treating the same condition. For example, for patients hospitalized with congestive heart failure in 2008, Medicare paid about $2,500 in the 30 days after discharge for each patient who received home health care as compared with $10,700 for those admitted to a SNF and $15,000 for those cared for in a rehabilitation hospital.    Our colleague, Representative Dave McKinley, has had a long interest in this subject and has sponsored legislation, along with Representatives Tom Price, John McNerney and Anna Eshoo to provide bundled payments for post-acute care services under Medicare. His bill is H.R. 1458, the quote, ``Bundling and Coordinating Post-Acute Care Act of 2015'' and is also known as BACPAC Act of 2015. This bill is designed to foster the delivery of high-quality, post-acute care services in the most cost effective manner while preserving the ability of patients, with guidance from their physician, to select their preferred provider of post-acute care services. This is the type of legislation that has the potential to promote healthy competition among PAC providers on the basis of quality, cost, accountability, and customer service while advancing innovation in care coordination, medication management, and hospitalization avoidance.    I am pleased the committee is examining post-acute care issues. Proposals such as BACPAC have potential to reward quality, achieve savings, and strengthen the sustainability of the Medicare program.    I look forward to hearing from our witnesses today, and I yield back.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>400160</t>
   </si>
   <si>
-    <t>Gene Green</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Green. Thank you, Mr. Chairman.    Millions of Medicare beneficiaries require continued care in post-acute settings after hospitalization. In 2013, 42 percent of Medicare beneficiaries discharged from the hospital went to post-acute care settings. Medicare spent $59 billion on these services that year. Medicare pays each type of PAC facility at a different rate. These different rates are created under the notion that sicker patients will require more costly care in specialized facilities, which seems normal.    However, advancements in the practice of medicine as well and thoughtful analysis by MedPAC and other independent researchers call into question the wisdom of such differentiated payment rates. MedPAC has long noted that shortcomings in Medicare's fee-for-service payments for post-acute care. Just last month, MedPAC reiterated that payments for post-acute care are too generous and significant shortcomings in the current structure exists. There is broad consensus on the need for improved quality measures across the post-acute care setting and a need for a more coordinated approach to care.    Unfortunately, our current system is characterized by silos. Patient-centered coordinated care is not encouraged by the incentive structure. Yet, while there is agreement on the need to improve the way post-acute care is delivered and reimbursed, significant challenges have hindered meaningful reform. This includes a lack of uniform definitions, standardized assessment information across care settings, and substantial geographic variation. Progress has been made to address these challenges, including changes passed in the law as part of the Affordable Care Act, the IMPACT Act, and most recently H.R. 2, the Medicare Access and CHIP Reauthorization Act. The Affordable Care Act included improvements in the post-care system, acute care system. As a result, Medicare is currently piloting delivery reforms.    The Centers on Medicare and Medicaid Services is in the process of testing the concept of bundled payments for post-acute care. Bundled payments encourage accountability for cost and quality by incentivizing only clinically necessary care and enhanced coordination. This has the potential to encourage more efficient delivery, break down those silos, and facilitate care coordination.    The ACA also required home health prospective payment system to be rebased to reflect more accurate factors, such as the average cost of providing care and the mix of intensity of services. Rebasing is currently being phased in and scheduled to be fully implemented by 2017. These important steps will help move us to an improved post-acute care system for beneficiaries and taxpayers.    Last Congress, the Improved Medicare Post-Acute Care Transformation or IMPACT Act was signed into law. This legislation reflected bipartisan, bicameral, stakeholder agreement that meaningful reform must be based on standardized post-acute assessment data, also provider settings.    The collection of common post-acute patient assessment data is to determine the right setting for patients who will facilitate discussions on how to reform and improve care for beneficiaries and the Medicare system as large. Without standardized patient assessment data, reforms to base post-acute care reimbursements on patient characteristics rather than on service in setting specific payment rates will be obstructed. There is a widespread agreement that new payment and delivery sent models are necessary to improve our healthcare system and achieve better patient outcomes, population health, and lower per capita cost.    As providers and CMS are in the process of testing new models, there is still much work to do. This work is ongoing and now is the time to dedicate resources toward building the knowledge base to help our understanding and inform decisionmaking. There are many potential policies available to pursue and using the lessons learned from recent efforts is an important step. This must be done before considering large-scale adoption of reform. Simply bundling payments in advance of this work would be premature.    The Bundling and Coordination Post-Acute Act, BACPAC, takes a different approach from what MedPAC has considered. Commenting on any specific approach would preempt the results of pilots and preclude CMS from utilizing the lessons learned from IMPACT Act and pilot programs to create more effective bundle models.    I look forward to hearing our witnesses today and further debate on our post-acute care reform. And I yield back my time.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>412278</t>
   </si>
   <si>
-    <t>Brett Guthrie</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Guthrie. Thank you, Mr. Chairman. I would like to yield my time to our colleague on the full committee, Mr. McKinley from West Virginia.</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>McKinley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. McKinley. Well, thank you. Thank you, Congressman. And thank you, Chairman, for the opportunity to address the group today.    This legislative hearing on post-acute care and especially on H.R. 1458, this Bundling and Post-Acute Care Act. As many of you may be aware, the President has already put post-acute care bundling in his budget, and we passed it, and the House has already included in our House version of what is in the conference right now is a concept of this. So it is very important that we--it is not a new concept. It is one that we have been working together on this framework for now 3 years, both with all the stakeholders. We have been working with the committee staff and they have been incredibly supportive in trying to put together something that answers this need. But for 3 years been trying to put this--because this is going to improve care for seniors and is going to help Medicare in the long run with it.    It develops a model for post-acute care services which will increase efficiency, encourage more choice and personalized care for patients, and offer some significant savings to the program in the process. There have been some people have argued that it might cost money. To the contrary. The CBO has already issued a finding that it could save between $20 and $25 billion, with a B, for Medicare if this program were put through. Not through cuts, but through creating efficiency in the post-acute care system. A bill that innovates, improves efficiency, protects Medicare and has a pay for of $20 to $25 billion, I think it deserves meaningful consideration.    And I really applaud the committee and the chairman all for giving it consideration here today. And I yield back the balance of my time.</t>
   </si>
   <si>
@@ -106,9 +94,6 @@
     <t>400308</t>
   </si>
   <si>
-    <t>Frank Pallone, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman, for calling today's hearing on post-acute care delivery, and I want to thank all of our witnesses for coming to testify, but especially welcome Dr. Steven Landers from New Jersey who is the president and CEO of the Visiting Nurse Association Health Group.    The Affordable Care Act has put Medicare on a path towards post-acute reform. However, there is still much more that needs to be done. Our committee clearly has a role to play in advancing positive beneficiary-focused reforms related to post-acute care for Medicare beneficiaries. We have a Medicare system right now with misaligned incentives, inaccurately priced payments, and little information on the quality or outcomes of beneficiaries served by post-acute providers like skilled nursing facilities, home health agencies, long-term care hospitals, or inpatient rehab facilities.    In 2013, Medicare spent about $59 billion on post-acute care providers, and I believe that there are viable payment solutions in this sector that are more sensible than increasing costs for beneficiaries of average incomes of only $22,500. What we know is that the quality outcomes and costs of post-acute care has a lot of variation around the country. And as a result of the ACA, Medicare is currently testing a number of payment system reforms that help improve care and outcomes in this area. Meanwhile, the need for post-acute care is not well-defined. Research has shown the similarity of patients treated in different post-acute care settings. A patient being rehabilitated from a stroke or hip replacement can be treated in a skilled nursing facility or an inpatient rehab facility, but in the latter Medicare pays 40 to 50 percent higher than it pays the skilled nursing facility for the same services.    And we do not have any common and comparable data across PAC providers to determine which patients fare best in which settings or even what appropriate levels of care are for patients of various acuity. That is why last year Congress passed the bipartisan IMPACT Act which, for the first time, requires providers to report standardized assessment data across the various post-acute care settings. While there are many interesting policy ideas in this arena, we need to learn from the ACA efforts underway and the data being collected as a result of the IMPACT Act and provide enough time to ensure the models work in a way that doesn't compromise access to high-quality services for our beneficiaries.    Data collected by the IMPACT Act, coupled with MedPAC's recommendations that Congress could do better or could better align post-acute care incentives to better utilize Medicare dollars, should be a useful guide for our efforts. And once we have improved information on post-acute care, I look forward to working with my colleagues on the committee to find policy solutions to ensure that Medicare continues to provide quality and effective health care to our seniors.    I yield back, Mr. Chairman.</t>
   </si>
   <si>
@@ -124,9 +109,6 @@
     <t xml:space="preserve">    Mr. Pitts. We have two panels today before us. On our first panel we have Dr. Mark Miller, executive director of the Medicare Payment Advisory Commission. Thank you very much, Dr. Miller, for coming today. Your written testimony will be made part of the record. You will have 5 minutes to summarize. And, at this time, you are recognized for 5 minutes for your opening statement.</t>
   </si>
   <si>
-    <t>Miller</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Miller. Chairman Pitts----</t>
   </si>
   <si>
@@ -271,9 +253,6 @@
     <t>400373</t>
   </si>
   <si>
-    <t>John Shimkus</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Shimkus. Well, that is OK, because I am very curious about the response and some of my questions were involved with that. Because, I think, following up on Mr. Pallone's questions, sometimes, in essence--I don't know the right terminology--but an advocate or someone else who could give some advice on the options from a practical application. The challenge is you are given a list, pick one, and you don't have anybody to help you through that.    So, I am on the flip side. I am not sure that it costs more. I think it may save more in time, effort, energy, and frustrations, with more information as someone who is doing that on a day--someone who is doing that on a day-to-day basis.    I think the challenge of folks our age with older adults is that we don't have the experience, and then we get thrown into it based upon an event and we are still juggling our lives, too. So, do you want to--and you were going to answer and follow up on that so go ahead.</t>
   </si>
   <si>
@@ -337,9 +316,6 @@
     <t>412315</t>
   </si>
   <si>
-    <t>Kurt Schrader</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Schrader. Thank you, Mr. Chairman. Appreciate that. You know, I do some of this post-acute care myself, but I am a veterinarian. So it is a little easier to do that way.    Along those lines, I guess, a question I have--looking at the IMPACT Act reviewing, I mean, that is a long-term project potentially and I am not sure we want to wait until 2024 whenever all that is done.    Is there some earlier date by which the committee or Congress should be informed by some of the information we are gleaning that you think would give us an opportunity to move forward in a very thoughtful way on this bundle payments thing?</t>
   </si>
   <si>
@@ -397,9 +373,6 @@
     <t>400285</t>
   </si>
   <si>
-    <t>Tim Murphy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you. Welcome, Dr. Miller. It is good to have you here.    What MedPAC has looked at and what we are talking about here are patients with a similar clinical condition receiving similar treatments from different providers at different locations for different costs. Am I correct?    OK. So has MedPAC ever looked at the issue of patients in a different way, the same clinical conditions, receiving the same treatment from the same provider at the same location for different costs?    If you would like to--I can give you a little more detail. Would you like some more details first?</t>
   </si>
   <si>
@@ -493,9 +466,6 @@
     <t>400663</t>
   </si>
   <si>
-    <t>Doris O. Matsui</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Matsui. Thank you, Mr. Chairman. And Dr. Miller, thank you very much for your testimony. This is somewhat similar but not really talking about hospitals here to Dr. Murphy's questions.    Under the current Medicare payment systems, there are no financial incentives for hospitals to refer patients to the most efficient or effective setting so that patients receive the most optimal but lowest cost care. Whether a patient goes to a home health agency or a skilled nursing facility, for example, seems to depend more on the availability of the post-acute care settings and their local market, patient and family preferences or financial relationships between providers.    Now, putting aside what Dr. Murphy was concerned about, and I think we all should be concerned about that, but if we proactively look at this, since patients and also, too, the hospitals have a role in this because they don't want the readmittance either, so look at that, too, but since patients often access post-acute care after a stay in the hospital, how can we best harness the hospitals to help ensure patients receive care in the right setting after a hospital stay?</t>
   </si>
   <si>
@@ -574,9 +544,6 @@
     <t>412485</t>
   </si>
   <si>
-    <t>H. Morgan Griffith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Griffith. Thanks. And I will try to be brief.    And I am going to go off on a little bit of a tangent. When I was in the Virginia State legislature and then subsequent to that, North Carolina, adopted zoning requirements that would allow med cottages to be placed in somebody's back yard if a member of their family had medical needs that required two or more procedures a day. And the estimates were that this would save a lot of money. Of course, it is not paid for by the Federal Government at this time.    And I would just ask that you all look into it because the concept is, is that you would build a hospital room in a mobile facility--basically the mobile home manufacturers love the bill for that reason because they would get this, but it would allow somebody like myself, if I were to suddenly have a major problem to stay in with my loved ones. And we had testimony in Virginia at the time that there was a young man who was 8 or 9 years old who was dying and his parents wanted to be with him, but they couldn't get a medically appropriate place for him in his rural community, and so the parents had to both quit their jobs and spend the last few months with him in a hospital room in Charlottesville, Virginia.    I think this is a concept that both saves money and is compassionate. It helps patients stay with their loved ones if they can, not necessarily in the hospital, but where they can have some treatment brought to the home where that is possible, in lieu of having a nursing home bed perhaps, but with the number of nursing home folks shouldn't be too opposed to it, and weren't at the time, because they see the market expanding so much that this niche would be there.    Just ask you to think about it. I think it is something for the future, and I would appreciate it if you all would take a look at this concept and be happy to give you any information that you need.</t>
   </si>
   <si>
@@ -592,9 +559,6 @@
     <t>412195</t>
   </si>
   <si>
-    <t>Kathy Castor</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Castor. Thank you, Mr. Chairman.    Dr. Miller, whenever we are talking about payment reform, I am always concerned that we are appropriately accounting for the complexities and differences among patients. I believe that if we move forward to reform in the post-acute care setting, we should be looking to make sure that we appropriately adjust provider payments to reflect beneficiary risk. Every--and personal conditions, and it kind of follows on what Mr. Guthrie was asking about.    Could you give us a--quickly, a little greater detail, do you believe a risk adjustment is an appropriate issue to focus on and what steps do we need to take, for example, in developing a bundled payment that would appropriately account for differences in beneficiaries?</t>
   </si>
   <si>
@@ -610,27 +574,18 @@
     <t xml:space="preserve">    Mr. Pitts [presiding]. Ladies and gentlemen, if you will take your seats, we will get started. Thank you very much for your patience with the vote, and then before that, I had to duck out for the signing, the enrollment ceremony for the SGR which is a nice little celebration.    So, we are back now with the second panel, and I will introduce them in the order that they speak. Dr. Steven Landers, president and CEO of the Visiting Nurse Association Health Group, Dr. Samuel Hammerman, chief medical officer of the LTACH Hospital Division at Select Medical Corporation, Dr. Melissa Morley, program manager of health care financing and payment at FTI International, and Mr. Leonard Russ, principal partner at Bayberry Health Care and chairman of the American Health Care Association.    Thank you each for coming. Your written testimony will be made part of the record. You will each be given 5 minutes to summarize your testimony.    And we will begin with you, Dr. Landers. You are recognized for 5 minutes for your opening statement.</t>
   </si>
   <si>
-    <t>Landers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Landers. Thank you, Chairman Pitts, Mr. Shrader. Thank you, Mr. McKinley for your leadership on this issue and honored to be here with my home State Representative Pallone.    Today's hearing is timely and needed. Seniors are being discharged from America's hospitals and finding themselves often in a poorly coordinated and costly post-acute care continuum. Sometimes instead of order, there is disarray. Instead of teamwork and clear care paths across venues, there is fragmentation and confusion. Instead of efficiency, unnecessary costs are being borne by patients in the Medicare program.    My organization, VNA Health Group, serves some of the oldest and frailest Medicare beneficiaries. As a result, we have seen firsthand how bewildering and burdensome the current situation can be for ailing seniors and their families. I think of an example, Patient Mrs. Smith, an 82-year-old woman with arthritis, congestive heart failure, and low vision, being discharged from a hospital where she had recently been treated for a broken hip caused by a fall. She has received some information but is still in pain and sleepy, and she and her family aren't sure of what to do. Her daughter, her main care giver, isn't sure who is going to be in charge after she is discharged and who to go to with questions.    Mrs. Smith and people like her have some basic but important needs, including a comprehensive and holistic assessment of her post-hospital needs and circumstances, help accessing the care that she needs that is right for her condition, the support of a cadre of professionals like nurses and therapists and social workers and physicians, short-term assistance with activities of daily living and basic living nutrition. Her story is not atypical. People like her are being discharged from hospitals each day across our country. They are our parents, our grandparents, aunts and uncles, and soon they may be us.    If Mrs. Smith and seniors like her receive the coordinated care that they need, they will recuperate more quickly at a lower cost with lower risk of rehospitalization, but too often this isn't the case, and people aren't getting this type of care. Older Americans like Mrs. Smith don't have what they need most, which is patient-centered care coordination. This means having a partner that is truly invested in helping them get better soon, a physician and nursing team by their side across care venues, integrated electronic information systems that will help avoid adverse events.    We believe that patient-centered care coordination can be achieved through PAC bundling that adapts a successful DRG model and provides consistent coordination and navigation support to discharge beneficiaries and their families. It is for this reason that the Partnership for Home Health--for Quality Home Health is proud to support the BACPAC Act. The BACPAC model incorporates elements that we feel are important to patient-centered care coordination. A model on diagnostic related groups, which have been in use for over 30 years, creates condition related groups to align interests and improve outcomes, ensures patient choice, network adequacy, and the use of clinical and technological innovations to improve care. It uses powerful risk and saving incentives to prioritize high quality coordinated care, and it strengthens program integrity because no coordinator is going to want a bad or fraudulent actor to be in its network. It aligns with Congress' passage of the IMPACT Act, which created a unified PAC assessment tool and achieves significant savings without cutting any providers' rates or increase in costs for any seniors.    There are many complex issues to be addressed, and as you do, please keep seniors like Mrs. Smith in mind so that Medicare post-acute care policy will not only be improved but work for the most vulnerable among us. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Pitts. Dr. Hammerman, you are recognized for 5 minutes for your opening statement.</t>
   </si>
   <si>
-    <t>Hammerman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Hammerman. Good afternoon. Thank you, Chairman Pitts and Ranking Member Green for holding today's hearing on the future of American post-acute care. My name is Dr. Samuel Hammerman. I am the chief medical officer of Select Medical's long-term acute care hospital division. I oversee more than 100 LTACH hospitals in 30 States.    I will try to offer some insights today based on my experiences and based on the experiences of the company I am proud to serve as the chief medical officer for, Select Medical. Select Medical is based outside Harrisburg, Pennsylvania, and is one of the largest providers of post-acute care in the country. Besides the 100-plus LTACH hospitals, Select Medical also operates about 20 inpatient rehabilitation hospitals, and 1,000 outpatient therapy clinics. All together, Select Medical employs over 30,000 Americans in more than 30 States.    Let me begin by saying that Select Medical does not oppose a bundled post-acute payment system. With this in mind, my observations on our post-acute care systems are as follows. I want to stress that Congress has already enacted extensive legislation laying the foundation for bundled payments for post-acute services. Just last fall, Congress passed the IMPACT Act of 2014. This law will enable Congress to develop an informed and evidence-based post-acute bundling system. We were happy to support this bipartisan bicameral bill.    The IMPACT Act will provide the Centers For Medicare and Medicaid Services and Congress with the necessary information, design a post-acute care payment system that stresses quality of care while maximizing efficiencies in the delivery of care. I salute Congress for moving to a new system while ensuring continued beneficiary access to the most appropriate setting of care.    On a similar note, I would note that the Affordable Care Act of 2010 established a number of new programs. It has post-acute bundling in hundreds of sites across the country. CMS is currently in the midst of numerous pilot programs testing numerous bundle payment concepts. In short, Congress and CMS have already largely commissioned a bundled future for post-acute care.    As a physician, I feel compelled to note that the current post-acute system still has many virtues. I would still make the case that the post-acute continuum of care represents a fairly logical and rational progression of care. Yes, we need to address the issue of readmissions, and yes, policymakers should always be concerned about whether care is appropriate and medically necessary.    As a historical aside, I ask you to consider that only about 10 percent of Medicare spending is devoted to post-acute care, and please recall how the post-acute sector came into being in the first place. In 1983, the Medicare program adopted the first prospective payment system which greatly encouraged hospitals to discharge patients more quickly.    Post-acute, as we know it today, only came into existence because of the incentives todischarge quickly from general hospitals. My advice to Congress is that you try to preserve a range of post-acute providers that offer a range of services from lower acuting nursing homes to higher acuity post-acute hospitals like rehabilitation hospitals and LTACH hospitals. All play a distinct role in meeting the needs of the American patient population.    One public policy issue important to both taxpayers and post-acute providers is ensuring that patients are cared for in the most appropriate setting. We agree that patients who can be safely and effectively cared for in sometimes less costly facilities like nursing homes should not be treated and paid for in rehabilitation hospitals and LTACH hospitals.    Little more than a year ago, Select Medical supported a new law passed by Congress designed to ensure that only appropriate patients are admitted to LTACH hospitals even though the law also significantly reduced Medicare reimbursement for these facilities. My larger point is that post-acute providers will continue to work with Congress to ensure that Medicare cost savings are achieved and beneficiary access to appropriate care is preserved.    Finally, I was asked to comment specifically on Congressman McKinley's BACPAC bill. BACPAC has some positive attributes, but it does not address many core elements of a bundled payment system and leaves these to the HHS Secretary to develop. Given the BACPAC's gaps, details on payment rates, a payment process, provider network requirements, a patient assessment process, and quality standards, the BACPAC bill appears to leave a great deal of policy work to CMS. This results in unanswered questions about how BACPAC would actually work in the real world. More importantly, we have concerns about the BACPAC bill because we feel it would shortcut the comprehensive payment reform processes that Congress launched in 2010 under the ACA and built upon in 2014 with the IMPACT Act.    Rather than supporting the IMPACT plan to first test bundling in the marketplace on a small scale, BACPAC would cut short this process. And given the complexity of the issues, this process is needed to develop a reliable and evidenced-based bundled payment program for post-acute care. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Pitts. Dr. Morley, you are recognized for 5 minutes for opening statement.</t>
   </si>
   <si>
-    <t>Morley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Morley. Chairman Pitts, Ranking Member Green, and members of the subcommittee, thank you for the opportunity to speak with you today. Since 2007, I have worked on several projects with the assistant secretary for planning and evaluation and CMS looking at both the composition of PAC episodes and the potential to predict episode spending using patient assessment data. On the basis of my experience conducting research in this area, I will highlight several relevant findings and note data and analysis required to move this payment approach forward.    The proportions of Medicare beneficiaries discharged to PAC, episode utilization and spending differs significantly across the United States because of varying practice patterns and availability of PAC providers. Differences in provider supply, particularly with regard to long-term care hospitals, LTACHs, and inpatient rehabilitation facilities are key drivers of differences in overall episode spending.    Establishing an episode-based payment requires an understanding of service use and spending on average; however, this is challenging when considering high cost but low-frequency services such as LTCH. For example, although only 2 percent of beneficiaries discharged to PAC use LTCH services, the mean cost for those using LTCH is over $35,000. When this spending is averaged over all PAC users, the mean cost is less than $700. This demonstrates a challenge in establishing a payment rate that is sufficient to accommodate the range of PAC services.    To build a payment system for PAC episodes that is risk adjusted based on patient characteristics, standardized patient assessment data are critical. However, standardized assessment data are not currently collected across PAC settings. As part of exploratory work with ASPE, we have examined the potential to develop risk adjustment models using items from the CARE data collected as part of the post-acute care payment reform demonstration.    These efforts have demonstrated the potential to use CARE items as risk adjustors to predict episode spending. Results of this work also highlight important differences in the predictive power of the models, depending on the first site of PAC. This foundational work is valuable in demonstrating the potential to use CARE items in an episode-based payment system, but additional data are needed to test the models on larger samples and to examine any differences in significant risk adjustors across diagnosis groups.    With the passage of the IMPACT Act, more data may become available over the next several years, although it is not clear at this time which items will be collected across PAC settings and whether the data that will be collected will be sufficient for the purposes of building an episode-based payment system.    Addressing the complexities of an episode-based payment system will require additional analyses as well as consideration of the results of the evaluation of the CMS Bundled Payments for Care Improvement initiative. The BPCI initiative is currently testing whether a bundled payment can reduce cost while maintaining or improving quality of care for Medicare beneficiaries.    The first evaluation report is an early assessment based on one quarter of data; however, results of analyses looking at cost shifting to the post-bundle period, beneficiary outcomes, using assessment data, and beneficiary experience using surveys are expected in future reports. Evaluation results comparing PAC service-only episodes with more integrated episodes that include both the acute hospitalization and PAC services will also provide valuable information on provider incentives across episode definitions.    The foundation of an episode-based payment system is the diagnosis groups on which payments are made. Significant analyses and input from clinicians will be needed to develop the categories of diagnoses and to define unrelated readmissions. Analyses to develop payment adjustments for geography will be important to address differences in provider supply and in cost of care across geographic areas. Consideration of provider networks and resources to support beneficiary choice will also be important.    Another consideration is related to the establishment of payments for services that continue past the end of an episode period. End-of-episode patient assessment data could not only support any post-episode service payment but also could be valuable information for ensuring quality of care. Episode-based payments offer the opportunity to coordinate across settings to provide care more efficiently and with greater beneficiary focus. The results of the ongoing analyses in the BPCI evaluation as well as availability of national standardized patient assessment data will be very important to moving this payment design forward.    Thank you for the opportunity to speak with you today.</t>
   </si>
   <si>
@@ -640,9 +595,6 @@
     <t xml:space="preserve">    Mr. Pitts. Mr. Russ, you are recognized 5 minutes for your opening statement.</t>
   </si>
   <si>
-    <t>Russ</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Russ. Well, thank you, Chairman Pitts, and thank you, Ranking Member Green, and members of the committee. I will be speaking somewhat extemporaneously and divert somewhat from my prepared remarks only because I think the testimony as written is in the record.    I would like to say at the outset, I am Len Russ, I am current chairman of the American Health Care Association. We represent nearly 13,000 skilled nursing facilities around the country, serving more than 2 million Medicare beneficiaries each year for short-term stays.    At the same time, our members are also hybrids. We also deal with the long-term population. We are also serving Medicaid patients, and I think, alluding to what was the earlier testimony today, that margin that we constantly focus on, we have to look at the real margins because we are taking care of a hybrid kind of population, all of which fall under the umbrella of our Nation's frail and elderly.    We, as skilled nursing facilities under the Medicare system, are one of the remaining sectors that still are paid basically on a fee-for-service system. The fee-for-service model that we currently enjoy is the prospective payment system. The prospective payment system has been in existence now for the better part of more than a decade, and has been subject to many criticisms, tinkering by CMS, et cetera, for the fact that there has been concern that there was an over-delivery of certain services at the expense of the under-delivery of others.    We at HCA champion the notion of healthcare reform. We believe in payment reform, and we have come up with a proposal ourselves to change payment reform for our sector as possibly a building block towards bundling. We do not believe that this current iteration of bundling is workable. We don't believe that the opening up of the conveners or third-party managers of a bundle will do anything to manage care but more likely just manage payment.    And as we have heard throughout the day, we talked about the, you know, breaking down silos, I think we need to be very mindful that by simply breaking down a payment cycle doesn't necessarily break down the care delivery system. That coordination is not always in line with simply realigning the payment system.    So having said that, we at HCA have come up with basically six principles by which we think any bundling proposal or largely any healthcare reform proposal needs to adhere to. The first is that with any post-acute care sector, the management of that bundle really should be left with the providers in the post-acute care space. So that hospitals, which the BACPAC bill would still allow to be the sort of care coordinator or third-party conveners, which might siphon off precious dollars from the payment into their own pocket, so to speak, for allegedly managing the care, whereas they are just managing the dollars, is probably not productive.    We also believe that smaller providers, and our organization represents very large corporations as well as regional companies, independent owners like myself do not have the economic muscle to be able to take on the kind of risk that would be required in order to become a care coordinator. So this is not going to present us with a level playing field.    Secondly, we want to be sure that Medicare beneficiaries have provider choice, and we see that the possibility that these kinds of bundles could raise barriers rather than break down barriers to access care. I also, for example, have five-star facilities, but I am not allowed to join certain networks in managed care right now because they don't necessarily need the access, and there are facilities that are perhaps one-star facilities who are in the network. So the notion that the quality facilities will rise to the top has so far not been borne out.    So we are not able to possibly join some of the these networks and offer the members choice, and I think any qualified excellent quality provider should be able to have access. We want additional flexibility in rendering care, not with a relaxation of regulations but being less prescriptive with how many minutes of therapy we give, with the venue of the therapy, so that we are measured on quality and outcomes.    AHCA has worked collaboratively with CMS and our partners on the Hill to make monumental strides in terms of improving quality over the last several years, both in terms of rehospitalization rates, in terms of reduction of antipsychotic medications, et cetera.    Finally, I just want to say that in any bundled system, we need a virtual bundle, not an actual bundle. A virtual bundle is something where the providers, even if they are aligned in a cohesive spectrum of care, can bill Medicare directly as opposed to leaving it to one provider to hold the dollars and have the others go to that provider to get paid. It is not necessarily a reliable payment system and it is not necessarily something that can be held accountable in the very, very thin margins and the cash flow stresses in which we operate. So with that, I will----</t>
   </si>
   <si>
@@ -748,9 +700,6 @@
     <t>400062</t>
   </si>
   <si>
-    <t>Lois Capps</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Capps. Thank you very much. And thank you, Mr. Chairman, for holding this hearing, all of the witnesses for your testimony.    I am pleased that we are here today to discuss post-acute care. I know how important this care is for patients who need continued medical attention. From long-term hospitals to home health providers, the various post-acute care providers all, each discipline offers essential healthcare services. I think we all agree that the way that post-acute care is delivered and paid for needs improvement.    There are many elements that go into making a high quality cost-effective system, and as with any change to Medicare, we must carefully consider the impact a policy change will have on the quality of care and access to care for patients. We first must need to gain a better understanding about how to measure quality of care across the different post-acute care settings.    Dr. Hammerman, in your testimony, you point out that the ACA put in place many important stepping stones for PAC, post-acute care reform. Currently, Medicare is testing and advancing a number of payment system reforms for post-acute care, including bundled payments and value-based purchasing.    So my first question to you, Dr. Hammerman, is to ask you to describe some of the bundling demonstrations that have been created under the ACA and what we are learning from them so far. That is just the first of a few questions I have.</t>
   </si>
   <si>
@@ -827,9 +776,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Pitts. The chair thanks the gentleman.    Now recognizes the gentleman from California, Mr. Cardenas, for 5 minutes for questions.</t>
-  </si>
-  <si>
-    <t>Cardenas</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Cardenas. Thank you very much, Mr. Chairman.    Mr. Russ, you are the chair of the American Healthcare Association----</t>
@@ -1258,11 +1204,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1284,11 +1228,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1308,13 +1250,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1336,11 +1276,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1360,13 +1298,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1388,11 +1324,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1412,13 +1346,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1440,11 +1372,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1464,13 +1394,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1492,11 +1420,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1516,13 +1442,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1544,11 +1468,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1568,13 +1490,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1596,11 +1516,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1622,11 +1540,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1646,13 +1562,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1674,11 +1588,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1698,13 +1610,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1726,11 +1636,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1752,11 +1660,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1776,13 +1682,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
         <v>36</v>
-      </c>
-      <c r="H22" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1804,11 +1708,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1828,13 +1730,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1856,11 +1756,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1880,13 +1778,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1906,13 +1802,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1932,13 +1826,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1958,13 +1850,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1984,13 +1874,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2010,13 +1898,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2036,13 +1922,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2062,13 +1946,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2088,13 +1970,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2114,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2140,13 +2018,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2168,11 +2044,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2192,13 +2066,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2218,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2244,13 +2114,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2270,13 +2138,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2296,13 +2162,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2322,13 +2186,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2348,13 +2210,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2374,13 +2234,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2400,13 +2258,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2426,13 +2282,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2452,13 +2306,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2478,13 +2330,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>23</v>
-      </c>
-      <c r="G49" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2504,13 +2354,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2530,13 +2378,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>23</v>
-      </c>
-      <c r="G51" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2556,13 +2402,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2582,13 +2426,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2610,11 +2452,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2634,13 +2474,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
-      </c>
-      <c r="G55" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2660,13 +2498,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>23</v>
-      </c>
-      <c r="G56" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2686,13 +2522,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>29</v>
-      </c>
-      <c r="G57" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2712,13 +2546,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>23</v>
-      </c>
-      <c r="G58" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2738,13 +2570,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2764,13 +2594,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>23</v>
-      </c>
-      <c r="G60" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2790,13 +2618,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2816,13 +2642,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>23</v>
-      </c>
-      <c r="G62" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2842,13 +2666,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2868,13 +2690,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>84</v>
-      </c>
-      <c r="G64" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2894,13 +2714,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>23</v>
-      </c>
-      <c r="G65" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2920,13 +2738,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>84</v>
-      </c>
-      <c r="G66" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2946,13 +2762,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>23</v>
-      </c>
-      <c r="G67" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2972,13 +2786,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>84</v>
-      </c>
-      <c r="G68" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2998,13 +2810,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>23</v>
-      </c>
-      <c r="G69" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3024,13 +2834,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>84</v>
-      </c>
-      <c r="G70" t="s">
+        <v>78</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
         <v>85</v>
-      </c>
-      <c r="H70" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3050,13 +2858,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>23</v>
-      </c>
-      <c r="G71" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3076,13 +2882,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>84</v>
-      </c>
-      <c r="G72" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3102,13 +2906,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>23</v>
-      </c>
-      <c r="G73" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3128,13 +2930,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>84</v>
-      </c>
-      <c r="G74" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3154,13 +2954,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>23</v>
-      </c>
-      <c r="G75" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3180,13 +2978,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>84</v>
-      </c>
-      <c r="G76" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3206,13 +3002,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>23</v>
-      </c>
-      <c r="G77" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3232,13 +3026,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>84</v>
-      </c>
-      <c r="G78" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3258,13 +3050,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>23</v>
-      </c>
-      <c r="G79" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3284,13 +3074,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>84</v>
-      </c>
-      <c r="G80" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3310,13 +3098,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>23</v>
-      </c>
-      <c r="G81" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3336,13 +3122,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>84</v>
-      </c>
-      <c r="G82" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3362,13 +3146,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3388,13 +3170,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>106</v>
-      </c>
-      <c r="G84" t="s">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3414,13 +3194,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>23</v>
-      </c>
-      <c r="G85" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3440,13 +3218,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>106</v>
-      </c>
-      <c r="G86" t="s">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3466,13 +3242,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>23</v>
-      </c>
-      <c r="G87" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3492,13 +3266,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>106</v>
-      </c>
-      <c r="G88" t="s">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3518,13 +3290,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>23</v>
-      </c>
-      <c r="G89" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3544,13 +3314,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
+        <v>99</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
         <v>106</v>
-      </c>
-      <c r="G90" t="s">
-        <v>107</v>
-      </c>
-      <c r="H90" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3570,13 +3338,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>23</v>
-      </c>
-      <c r="G91" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3596,13 +3362,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>106</v>
-      </c>
-      <c r="G92" t="s">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3622,13 +3386,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>23</v>
-      </c>
-      <c r="G93" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3648,13 +3410,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>106</v>
-      </c>
-      <c r="G94" t="s">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3674,13 +3434,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>23</v>
-      </c>
-      <c r="G95" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3700,13 +3458,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>106</v>
-      </c>
-      <c r="G96" t="s">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3726,13 +3482,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>23</v>
-      </c>
-      <c r="G97" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3752,13 +3506,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>106</v>
-      </c>
-      <c r="G98" t="s">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3778,13 +3530,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>23</v>
-      </c>
-      <c r="G99" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3804,13 +3554,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>106</v>
-      </c>
-      <c r="G100" t="s">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3830,13 +3578,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>19</v>
-      </c>
-      <c r="G101" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3856,13 +3602,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>126</v>
-      </c>
-      <c r="G102" t="s">
-        <v>127</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3882,13 +3626,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>23</v>
-      </c>
-      <c r="G103" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3908,13 +3650,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>126</v>
-      </c>
-      <c r="G104" t="s">
-        <v>127</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3934,13 +3674,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>23</v>
-      </c>
-      <c r="G105" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3960,13 +3698,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>126</v>
-      </c>
-      <c r="G106" t="s">
-        <v>127</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3986,13 +3722,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>23</v>
-      </c>
-      <c r="G107" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4012,13 +3746,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>126</v>
-      </c>
-      <c r="G108" t="s">
-        <v>127</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4038,13 +3770,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>23</v>
-      </c>
-      <c r="G109" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4064,13 +3794,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>126</v>
-      </c>
-      <c r="G110" t="s">
+        <v>118</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
         <v>127</v>
-      </c>
-      <c r="H110" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4090,13 +3818,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>23</v>
-      </c>
-      <c r="G111" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4116,13 +3842,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>126</v>
-      </c>
-      <c r="G112" t="s">
-        <v>127</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4142,13 +3866,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>23</v>
-      </c>
-      <c r="G113" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4168,13 +3890,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>126</v>
-      </c>
-      <c r="G114" t="s">
-        <v>127</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4194,13 +3914,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>23</v>
-      </c>
-      <c r="G115" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4220,13 +3938,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>126</v>
-      </c>
-      <c r="G116" t="s">
-        <v>127</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4246,13 +3962,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>23</v>
-      </c>
-      <c r="G117" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4272,13 +3986,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>126</v>
-      </c>
-      <c r="G118" t="s">
-        <v>127</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4298,13 +4010,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>23</v>
-      </c>
-      <c r="G119" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4324,13 +4034,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>126</v>
-      </c>
-      <c r="G120" t="s">
-        <v>127</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4350,13 +4058,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>23</v>
-      </c>
-      <c r="G121" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4376,13 +4082,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>126</v>
-      </c>
-      <c r="G122" t="s">
-        <v>127</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4402,13 +4106,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>23</v>
-      </c>
-      <c r="G123" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4428,13 +4130,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>126</v>
-      </c>
-      <c r="G124" t="s">
-        <v>127</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4454,13 +4154,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>23</v>
-      </c>
-      <c r="G125" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4480,13 +4178,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>126</v>
-      </c>
-      <c r="G126" t="s">
-        <v>127</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4506,13 +4202,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>23</v>
-      </c>
-      <c r="G127" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4532,13 +4226,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>126</v>
-      </c>
-      <c r="G128" t="s">
-        <v>127</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4558,13 +4250,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>23</v>
-      </c>
-      <c r="G129" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4584,13 +4274,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>126</v>
-      </c>
-      <c r="G130" t="s">
-        <v>127</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4610,13 +4298,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>19</v>
-      </c>
-      <c r="G131" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4636,13 +4322,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>158</v>
-      </c>
-      <c r="G132" t="s">
-        <v>159</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4662,13 +4346,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>23</v>
-      </c>
-      <c r="G133" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4688,13 +4370,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>158</v>
-      </c>
-      <c r="G134" t="s">
-        <v>159</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4714,13 +4394,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>23</v>
-      </c>
-      <c r="G135" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4740,13 +4418,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>158</v>
-      </c>
-      <c r="G136" t="s">
-        <v>159</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4766,13 +4442,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>23</v>
-      </c>
-      <c r="G137" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4792,13 +4466,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>158</v>
-      </c>
-      <c r="G138" t="s">
-        <v>159</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4818,13 +4490,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>23</v>
-      </c>
-      <c r="G139" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4844,13 +4514,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>158</v>
-      </c>
-      <c r="G140" t="s">
-        <v>159</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4870,13 +4538,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>23</v>
-      </c>
-      <c r="G141" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4896,13 +4562,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>158</v>
-      </c>
-      <c r="G142" t="s">
+        <v>149</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
         <v>159</v>
-      </c>
-      <c r="H142" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4922,13 +4586,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>23</v>
-      </c>
-      <c r="G143" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4948,13 +4610,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>158</v>
-      </c>
-      <c r="G144" t="s">
-        <v>159</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4974,13 +4634,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>23</v>
-      </c>
-      <c r="G145" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5000,13 +4658,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>158</v>
-      </c>
-      <c r="G146" t="s">
-        <v>159</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5026,13 +4682,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>23</v>
-      </c>
-      <c r="G147" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5052,13 +4706,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>158</v>
-      </c>
-      <c r="G148" t="s">
-        <v>159</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5078,13 +4730,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>23</v>
-      </c>
-      <c r="G149" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5104,13 +4754,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>158</v>
-      </c>
-      <c r="G150" t="s">
-        <v>159</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5130,13 +4778,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>23</v>
-      </c>
-      <c r="G151" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5156,13 +4802,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>158</v>
-      </c>
-      <c r="G152" t="s">
-        <v>159</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5182,13 +4826,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>23</v>
-      </c>
-      <c r="G153" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5208,13 +4850,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>158</v>
-      </c>
-      <c r="G154" t="s">
-        <v>159</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5234,13 +4874,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>23</v>
-      </c>
-      <c r="G155" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5260,13 +4898,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>158</v>
-      </c>
-      <c r="G156" t="s">
-        <v>159</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5286,13 +4922,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>19</v>
-      </c>
-      <c r="G157" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5312,13 +4946,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>185</v>
-      </c>
-      <c r="G158" t="s">
-        <v>186</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5338,13 +4970,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>23</v>
-      </c>
-      <c r="G159" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5364,13 +4994,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>185</v>
-      </c>
-      <c r="G160" t="s">
-        <v>186</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5390,13 +5018,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>19</v>
-      </c>
-      <c r="G161" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5416,13 +5042,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>191</v>
-      </c>
-      <c r="G162" t="s">
-        <v>192</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5442,13 +5066,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>23</v>
-      </c>
-      <c r="G163" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5468,13 +5090,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>191</v>
-      </c>
-      <c r="G164" t="s">
-        <v>192</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5494,13 +5114,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>19</v>
-      </c>
-      <c r="G165" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5522,11 +5140,9 @@
       <c r="F166" t="s">
         <v>11</v>
       </c>
-      <c r="G166" t="s">
-        <v>12</v>
-      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5546,13 +5162,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>23</v>
-      </c>
-      <c r="G167" t="s">
-        <v>198</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5574,11 +5188,9 @@
       <c r="F168" t="s">
         <v>11</v>
       </c>
-      <c r="G168" t="s">
-        <v>12</v>
-      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5600,11 +5212,9 @@
       <c r="F169" t="s">
         <v>11</v>
       </c>
-      <c r="G169" t="s">
-        <v>12</v>
-      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5624,13 +5234,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>23</v>
-      </c>
-      <c r="G170" t="s">
-        <v>201</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5652,11 +5260,9 @@
       <c r="F171" t="s">
         <v>11</v>
       </c>
-      <c r="G171" t="s">
-        <v>12</v>
-      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5678,11 +5284,9 @@
       <c r="F172" t="s">
         <v>11</v>
       </c>
-      <c r="G172" t="s">
-        <v>12</v>
-      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5702,13 +5306,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>23</v>
-      </c>
-      <c r="G173" t="s">
-        <v>204</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5730,11 +5332,9 @@
       <c r="F174" t="s">
         <v>11</v>
       </c>
-      <c r="G174" t="s">
-        <v>12</v>
-      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5756,11 +5356,9 @@
       <c r="F175" t="s">
         <v>11</v>
       </c>
-      <c r="G175" t="s">
-        <v>12</v>
-      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5780,13 +5378,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>23</v>
-      </c>
-      <c r="G176" t="s">
-        <v>208</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5808,11 +5404,9 @@
       <c r="F177" t="s">
         <v>11</v>
       </c>
-      <c r="G177" t="s">
-        <v>12</v>
-      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5834,11 +5428,9 @@
       <c r="F178" t="s">
         <v>11</v>
       </c>
-      <c r="G178" t="s">
-        <v>12</v>
-      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5858,13 +5450,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>23</v>
-      </c>
-      <c r="G179" t="s">
-        <v>204</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5886,11 +5476,9 @@
       <c r="F180" t="s">
         <v>11</v>
       </c>
-      <c r="G180" t="s">
-        <v>12</v>
-      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5910,13 +5498,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>23</v>
-      </c>
-      <c r="G181" t="s">
-        <v>204</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5938,11 +5524,9 @@
       <c r="F182" t="s">
         <v>11</v>
       </c>
-      <c r="G182" t="s">
-        <v>12</v>
-      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5962,13 +5546,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>23</v>
-      </c>
-      <c r="G183" t="s">
-        <v>201</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5990,11 +5572,9 @@
       <c r="F184" t="s">
         <v>11</v>
       </c>
-      <c r="G184" t="s">
-        <v>12</v>
-      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6014,13 +5594,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>23</v>
-      </c>
-      <c r="G185" t="s">
+        <v>20</v>
+      </c>
+      <c r="G185" t="s"/>
+      <c r="H185" t="s">
         <v>201</v>
-      </c>
-      <c r="H185" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6042,11 +5620,9 @@
       <c r="F186" t="s">
         <v>11</v>
       </c>
-      <c r="G186" t="s">
-        <v>12</v>
-      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6066,13 +5642,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>23</v>
-      </c>
-      <c r="G187" t="s">
-        <v>198</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6094,11 +5668,9 @@
       <c r="F188" t="s">
         <v>11</v>
       </c>
-      <c r="G188" t="s">
-        <v>12</v>
-      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6118,13 +5690,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>23</v>
-      </c>
-      <c r="G189" t="s">
-        <v>208</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6146,11 +5716,9 @@
       <c r="F190" t="s">
         <v>11</v>
       </c>
-      <c r="G190" t="s">
-        <v>12</v>
-      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6170,13 +5738,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>23</v>
-      </c>
-      <c r="G191" t="s">
-        <v>208</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6198,11 +5764,9 @@
       <c r="F192" t="s">
         <v>11</v>
       </c>
-      <c r="G192" t="s">
-        <v>12</v>
-      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6222,13 +5786,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>15</v>
-      </c>
-      <c r="G193" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6248,13 +5810,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>23</v>
-      </c>
-      <c r="G194" t="s">
-        <v>204</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6274,13 +5834,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>15</v>
-      </c>
-      <c r="G195" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6300,13 +5858,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>23</v>
-      </c>
-      <c r="G196" t="s">
-        <v>204</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6326,13 +5882,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>15</v>
-      </c>
-      <c r="G197" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6352,13 +5906,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>23</v>
-      </c>
-      <c r="G198" t="s">
-        <v>204</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6378,13 +5930,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>15</v>
-      </c>
-      <c r="G199" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6404,13 +5954,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>23</v>
-      </c>
-      <c r="G200" t="s">
-        <v>204</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6430,13 +5978,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>15</v>
-      </c>
-      <c r="G201" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6458,11 +6004,9 @@
       <c r="F202" t="s">
         <v>11</v>
       </c>
-      <c r="G202" t="s">
-        <v>12</v>
-      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6482,13 +6026,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>19</v>
-      </c>
-      <c r="G203" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6508,13 +6050,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>23</v>
-      </c>
-      <c r="G204" t="s">
-        <v>204</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6534,13 +6074,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>19</v>
-      </c>
-      <c r="G205" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6560,13 +6098,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>23</v>
-      </c>
-      <c r="G206" t="s">
-        <v>204</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6586,13 +6122,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>19</v>
-      </c>
-      <c r="G207" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6612,13 +6146,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>23</v>
-      </c>
-      <c r="G208" t="s">
-        <v>201</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6638,13 +6170,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>19</v>
-      </c>
-      <c r="G209" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6666,11 +6196,9 @@
       <c r="F210" t="s">
         <v>11</v>
       </c>
-      <c r="G210" t="s">
-        <v>12</v>
-      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6690,13 +6218,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>243</v>
-      </c>
-      <c r="G211" t="s">
-        <v>244</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6716,13 +6242,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>23</v>
-      </c>
-      <c r="G212" t="s">
-        <v>201</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6742,13 +6266,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>243</v>
-      </c>
-      <c r="G213" t="s">
-        <v>244</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6768,13 +6290,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>23</v>
-      </c>
-      <c r="G214" t="s">
-        <v>201</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6794,13 +6314,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>243</v>
-      </c>
-      <c r="G215" t="s">
-        <v>244</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6820,13 +6338,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>23</v>
-      </c>
-      <c r="G216" t="s">
-        <v>201</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6846,13 +6362,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>243</v>
-      </c>
-      <c r="G217" t="s">
-        <v>244</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6872,13 +6386,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>23</v>
-      </c>
-      <c r="G218" t="s">
-        <v>201</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6898,13 +6410,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>23</v>
-      </c>
-      <c r="G219" t="s">
-        <v>204</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6924,13 +6434,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>243</v>
-      </c>
-      <c r="G220" t="s">
-        <v>244</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6950,13 +6458,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>23</v>
-      </c>
-      <c r="G221" t="s">
-        <v>198</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6976,13 +6482,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>243</v>
-      </c>
-      <c r="G222" t="s">
-        <v>244</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7002,13 +6506,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>23</v>
-      </c>
-      <c r="G223" t="s">
-        <v>198</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7028,13 +6530,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>243</v>
-      </c>
-      <c r="G224" t="s">
-        <v>244</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7056,11 +6556,9 @@
       <c r="F225" t="s">
         <v>11</v>
       </c>
-      <c r="G225" t="s">
-        <v>12</v>
-      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7080,13 +6578,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
+        <v>227</v>
+      </c>
+      <c r="G226" t="s"/>
+      <c r="H226" t="s">
         <v>243</v>
-      </c>
-      <c r="G226" t="s">
-        <v>244</v>
-      </c>
-      <c r="H226" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7106,13 +6602,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>23</v>
-      </c>
-      <c r="G227" t="s">
-        <v>208</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7132,13 +6626,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>243</v>
-      </c>
-      <c r="G228" t="s">
-        <v>244</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7158,13 +6650,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>23</v>
-      </c>
-      <c r="G229" t="s">
-        <v>208</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7184,13 +6674,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>243</v>
-      </c>
-      <c r="G230" t="s">
-        <v>244</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7212,11 +6700,9 @@
       <c r="F231" t="s">
         <v>11</v>
       </c>
-      <c r="G231" t="s">
-        <v>12</v>
-      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7236,13 +6722,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>23</v>
-      </c>
-      <c r="G232" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7262,13 +6746,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>23</v>
-      </c>
-      <c r="G233" t="s">
-        <v>198</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7288,13 +6770,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>23</v>
-      </c>
-      <c r="G234" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7314,13 +6794,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>23</v>
-      </c>
-      <c r="G235" t="s">
-        <v>198</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7340,13 +6818,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>23</v>
-      </c>
-      <c r="G236" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7368,11 +6844,9 @@
       <c r="F237" t="s">
         <v>11</v>
       </c>
-      <c r="G237" t="s">
-        <v>12</v>
-      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7392,13 +6866,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>23</v>
-      </c>
-      <c r="G238" t="s">
-        <v>271</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7418,13 +6890,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>23</v>
-      </c>
-      <c r="G239" t="s">
-        <v>208</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7444,13 +6914,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>23</v>
-      </c>
-      <c r="G240" t="s">
-        <v>271</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7470,13 +6938,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>23</v>
-      </c>
-      <c r="G241" t="s">
-        <v>208</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7496,13 +6962,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>23</v>
-      </c>
-      <c r="G242" t="s">
-        <v>271</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7522,13 +6986,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>23</v>
-      </c>
-      <c r="G243" t="s">
-        <v>208</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7548,13 +7010,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>23</v>
-      </c>
-      <c r="G244" t="s">
-        <v>271</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7574,13 +7034,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>23</v>
-      </c>
-      <c r="G245" t="s">
-        <v>208</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7600,13 +7058,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>23</v>
-      </c>
-      <c r="G246" t="s">
-        <v>271</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7628,11 +7084,9 @@
       <c r="F247" t="s">
         <v>11</v>
       </c>
-      <c r="G247" t="s">
-        <v>12</v>
-      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95993.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95993.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="294">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400320</t>
   </si>
   <si>
+    <t>Pitts</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pitts. The subcommittee will come to order. The chair will recognize himself for an opening statement.    Over the past several years, this committee has focused on understanding and responding to the need to modernize Medicare's financing and payment structures. Today's hearing will give members and stakeholders an opportunity to examine the current state of post-acute care, PAC, for Medicare beneficiaries and discuss ways it can be improved.    Post-acute care is care that is provided to individuals who need additional help recuperating from an acute illness or serious medical procedure usually after discharge from hospital care. Post-acute care providers such as skilled nursing facilities, SNFs, inpatient rehabilitation facilities, IRFs, long-term care hospitals, home health agencies, and hospices are reimbursed by Medicare with different payment systems, which were originally designed to focus on a phase of a patient's illness in a specific site of service. As a result, payments across post-acute care settings may differ considerably even though the clinical characteristics of the patient and the services delivered may be very similar.    According to the Medicare Payment Advisory Commission, MedPAC, Medicare's payments to PAC providers totaled $59 billion in the year 2013. For patients who are hospitalized for exacerbations of chronic conditions, such as congestive heart failure, Medicare spends nearly as much on post-acute care and readmissions in the first 30 days after a patient is discharged as it does for the initial hospital admission. Medicare payments for post-acute care have grown faster than most other categories of spending. For example, total Medicare spending for patients hospitalized with myocardial infarction, congestive heart failure, or hip fracture grew by 1.5 to 2 percent each year between 1994 and 2009, while spending on post-acute care for those patients grew by 4 \\1/2\\ to 8 \\1/2\\ percent per year.    There are many opportunities for the Medicare program to save taxpayer dollars and improve seniors' quality of care through better management of post-acute care. One way is to make sure patients are treated in the most cost effective clinically appropriate setting. The current model has significant reimbursement disparities for treating the same condition. For example, for patients hospitalized with congestive heart failure in 2008, Medicare paid about $2,500 in the 30 days after discharge for each patient who received home health care as compared with $10,700 for those admitted to a SNF and $15,000 for those cared for in a rehabilitation hospital.    Our colleague, Representative Dave McKinley, has had a long interest in this subject and has sponsored legislation, along with Representatives Tom Price, John McNerney and Anna Eshoo to provide bundled payments for post-acute care services under Medicare. His bill is H.R. 1458, the quote, ``Bundling and Coordinating Post-Acute Care Act of 2015'' and is also known as BACPAC Act of 2015. This bill is designed to foster the delivery of high-quality, post-acute care services in the most cost effective manner while preserving the ability of patients, with guidance from their physician, to select their preferred provider of post-acute care services. This is the type of legislation that has the potential to promote healthy competition among PAC providers on the basis of quality, cost, accountability, and customer service while advancing innovation in care coordination, medication management, and hospitalization avoidance.    I am pleased the committee is examining post-acute care issues. Proposals such as BACPAC have potential to reward quality, achieve savings, and strengthen the sustainability of the Medicare program.    I look forward to hearing from our witnesses today, and I yield back.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>400160</t>
   </si>
   <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Gene</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Green. Thank you, Mr. Chairman.    Millions of Medicare beneficiaries require continued care in post-acute settings after hospitalization. In 2013, 42 percent of Medicare beneficiaries discharged from the hospital went to post-acute care settings. Medicare spent $59 billion on these services that year. Medicare pays each type of PAC facility at a different rate. These different rates are created under the notion that sicker patients will require more costly care in specialized facilities, which seems normal.    However, advancements in the practice of medicine as well and thoughtful analysis by MedPAC and other independent researchers call into question the wisdom of such differentiated payment rates. MedPAC has long noted that shortcomings in Medicare's fee-for-service payments for post-acute care. Just last month, MedPAC reiterated that payments for post-acute care are too generous and significant shortcomings in the current structure exists. There is broad consensus on the need for improved quality measures across the post-acute care setting and a need for a more coordinated approach to care.    Unfortunately, our current system is characterized by silos. Patient-centered coordinated care is not encouraged by the incentive structure. Yet, while there is agreement on the need to improve the way post-acute care is delivered and reimbursed, significant challenges have hindered meaningful reform. This includes a lack of uniform definitions, standardized assessment information across care settings, and substantial geographic variation. Progress has been made to address these challenges, including changes passed in the law as part of the Affordable Care Act, the IMPACT Act, and most recently H.R. 2, the Medicare Access and CHIP Reauthorization Act. The Affordable Care Act included improvements in the post-care system, acute care system. As a result, Medicare is currently piloting delivery reforms.    The Centers on Medicare and Medicaid Services is in the process of testing the concept of bundled payments for post-acute care. Bundled payments encourage accountability for cost and quality by incentivizing only clinically necessary care and enhanced coordination. This has the potential to encourage more efficient delivery, break down those silos, and facilitate care coordination.    The ACA also required home health prospective payment system to be rebased to reflect more accurate factors, such as the average cost of providing care and the mix of intensity of services. Rebasing is currently being phased in and scheduled to be fully implemented by 2017. These important steps will help move us to an improved post-acute care system for beneficiaries and taxpayers.    Last Congress, the Improved Medicare Post-Acute Care Transformation or IMPACT Act was signed into law. This legislation reflected bipartisan, bicameral, stakeholder agreement that meaningful reform must be based on standardized post-acute assessment data, also provider settings.    The collection of common post-acute patient assessment data is to determine the right setting for patients who will facilitate discussions on how to reform and improve care for beneficiaries and the Medicare system as large. Without standardized patient assessment data, reforms to base post-acute care reimbursements on patient characteristics rather than on service in setting specific payment rates will be obstructed. There is a widespread agreement that new payment and delivery sent models are necessary to improve our healthcare system and achieve better patient outcomes, population health, and lower per capita cost.    As providers and CMS are in the process of testing new models, there is still much work to do. This work is ongoing and now is the time to dedicate resources toward building the knowledge base to help our understanding and inform decisionmaking. There are many potential policies available to pursue and using the lessons learned from recent efforts is an important step. This must be done before considering large-scale adoption of reform. Simply bundling payments in advance of this work would be premature.    The Bundling and Coordination Post-Acute Act, BACPAC, takes a different approach from what MedPAC has considered. Commenting on any specific approach would preempt the results of pilots and preclude CMS from utilizing the lessons learned from IMPACT Act and pilot programs to create more effective bundle models.    I look forward to hearing our witnesses today and further debate on our post-acute care reform. And I yield back my time.</t>
   </si>
   <si>
@@ -70,6 +85,12 @@
     <t>412278</t>
   </si>
   <si>
+    <t>Guthrie</t>
+  </si>
+  <si>
+    <t>Brett</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Guthrie. Thank you, Mr. Chairman. I would like to yield my time to our colleague on the full committee, Mr. McKinley from West Virginia.</t>
   </si>
   <si>
@@ -79,6 +100,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>McKinley</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. McKinley. Well, thank you. Thank you, Congressman. And thank you, Chairman, for the opportunity to address the group today.    This legislative hearing on post-acute care and especially on H.R. 1458, this Bundling and Post-Acute Care Act. As many of you may be aware, the President has already put post-acute care bundling in his budget, and we passed it, and the House has already included in our House version of what is in the conference right now is a concept of this. So it is very important that we--it is not a new concept. It is one that we have been working together on this framework for now 3 years, both with all the stakeholders. We have been working with the committee staff and they have been incredibly supportive in trying to put together something that answers this need. But for 3 years been trying to put this--because this is going to improve care for seniors and is going to help Medicare in the long run with it.    It develops a model for post-acute care services which will increase efficiency, encourage more choice and personalized care for patients, and offer some significant savings to the program in the process. There have been some people have argued that it might cost money. To the contrary. The CBO has already issued a finding that it could save between $20 and $25 billion, with a B, for Medicare if this program were put through. Not through cuts, but through creating efficiency in the post-acute care system. A bill that innovates, improves efficiency, protects Medicare and has a pay for of $20 to $25 billion, I think it deserves meaningful consideration.    And I really applaud the committee and the chairman all for giving it consideration here today. And I yield back the balance of my time.</t>
   </si>
   <si>
@@ -94,6 +118,12 @@
     <t>400308</t>
   </si>
   <si>
+    <t>Pallone</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman, for calling today's hearing on post-acute care delivery, and I want to thank all of our witnesses for coming to testify, but especially welcome Dr. Steven Landers from New Jersey who is the president and CEO of the Visiting Nurse Association Health Group.    The Affordable Care Act has put Medicare on a path towards post-acute reform. However, there is still much more that needs to be done. Our committee clearly has a role to play in advancing positive beneficiary-focused reforms related to post-acute care for Medicare beneficiaries. We have a Medicare system right now with misaligned incentives, inaccurately priced payments, and little information on the quality or outcomes of beneficiaries served by post-acute providers like skilled nursing facilities, home health agencies, long-term care hospitals, or inpatient rehab facilities.    In 2013, Medicare spent about $59 billion on post-acute care providers, and I believe that there are viable payment solutions in this sector that are more sensible than increasing costs for beneficiaries of average incomes of only $22,500. What we know is that the quality outcomes and costs of post-acute care has a lot of variation around the country. And as a result of the ACA, Medicare is currently testing a number of payment system reforms that help improve care and outcomes in this area. Meanwhile, the need for post-acute care is not well-defined. Research has shown the similarity of patients treated in different post-acute care settings. A patient being rehabilitated from a stroke or hip replacement can be treated in a skilled nursing facility or an inpatient rehab facility, but in the latter Medicare pays 40 to 50 percent higher than it pays the skilled nursing facility for the same services.    And we do not have any common and comparable data across PAC providers to determine which patients fare best in which settings or even what appropriate levels of care are for patients of various acuity. That is why last year Congress passed the bipartisan IMPACT Act which, for the first time, requires providers to report standardized assessment data across the various post-acute care settings. While there are many interesting policy ideas in this arena, we need to learn from the ACA efforts underway and the data being collected as a result of the IMPACT Act and provide enough time to ensure the models work in a way that doesn't compromise access to high-quality services for our beneficiaries.    Data collected by the IMPACT Act, coupled with MedPAC's recommendations that Congress could do better or could better align post-acute care incentives to better utilize Medicare dollars, should be a useful guide for our efforts. And once we have improved information on post-acute care, I look forward to working with my colleagues on the committee to find policy solutions to ensure that Medicare continues to provide quality and effective health care to our seniors.    I yield back, Mr. Chairman.</t>
   </si>
   <si>
@@ -109,6 +139,9 @@
     <t xml:space="preserve">    Mr. Pitts. We have two panels today before us. On our first panel we have Dr. Mark Miller, executive director of the Medicare Payment Advisory Commission. Thank you very much, Dr. Miller, for coming today. Your written testimony will be made part of the record. You will have 5 minutes to summarize. And, at this time, you are recognized for 5 minutes for your opening statement.</t>
   </si>
   <si>
+    <t>Miller</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Miller. Chairman Pitts----</t>
   </si>
   <si>
@@ -253,6 +286,12 @@
     <t>400373</t>
   </si>
   <si>
+    <t>Shimkus</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Shimkus. Well, that is OK, because I am very curious about the response and some of my questions were involved with that. Because, I think, following up on Mr. Pallone's questions, sometimes, in essence--I don't know the right terminology--but an advocate or someone else who could give some advice on the options from a practical application. The challenge is you are given a list, pick one, and you don't have anybody to help you through that.    So, I am on the flip side. I am not sure that it costs more. I think it may save more in time, effort, energy, and frustrations, with more information as someone who is doing that on a day--someone who is doing that on a day-to-day basis.    I think the challenge of folks our age with older adults is that we don't have the experience, and then we get thrown into it based upon an event and we are still juggling our lives, too. So, do you want to--and you were going to answer and follow up on that so go ahead.</t>
   </si>
   <si>
@@ -316,6 +355,12 @@
     <t>412315</t>
   </si>
   <si>
+    <t>Schrader</t>
+  </si>
+  <si>
+    <t>Kurt</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Schrader. Thank you, Mr. Chairman. Appreciate that. You know, I do some of this post-acute care myself, but I am a veterinarian. So it is a little easier to do that way.    Along those lines, I guess, a question I have--looking at the IMPACT Act reviewing, I mean, that is a long-term project potentially and I am not sure we want to wait until 2024 whenever all that is done.    Is there some earlier date by which the committee or Congress should be informed by some of the information we are gleaning that you think would give us an opportunity to move forward in a very thoughtful way on this bundle payments thing?</t>
   </si>
   <si>
@@ -373,6 +418,12 @@
     <t>400285</t>
   </si>
   <si>
+    <t>Murphy</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you. Welcome, Dr. Miller. It is good to have you here.    What MedPAC has looked at and what we are talking about here are patients with a similar clinical condition receiving similar treatments from different providers at different locations for different costs. Am I correct?    OK. So has MedPAC ever looked at the issue of patients in a different way, the same clinical conditions, receiving the same treatment from the same provider at the same location for different costs?    If you would like to--I can give you a little more detail. Would you like some more details first?</t>
   </si>
   <si>
@@ -466,6 +517,12 @@
     <t>400663</t>
   </si>
   <si>
+    <t>Matsui</t>
+  </si>
+  <si>
+    <t>Doris</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Matsui. Thank you, Mr. Chairman. And Dr. Miller, thank you very much for your testimony. This is somewhat similar but not really talking about hospitals here to Dr. Murphy's questions.    Under the current Medicare payment systems, there are no financial incentives for hospitals to refer patients to the most efficient or effective setting so that patients receive the most optimal but lowest cost care. Whether a patient goes to a home health agency or a skilled nursing facility, for example, seems to depend more on the availability of the post-acute care settings and their local market, patient and family preferences or financial relationships between providers.    Now, putting aside what Dr. Murphy was concerned about, and I think we all should be concerned about that, but if we proactively look at this, since patients and also, too, the hospitals have a role in this because they don't want the readmittance either, so look at that, too, but since patients often access post-acute care after a stay in the hospital, how can we best harness the hospitals to help ensure patients receive care in the right setting after a hospital stay?</t>
   </si>
   <si>
@@ -544,6 +601,12 @@
     <t>412485</t>
   </si>
   <si>
+    <t>Griffith</t>
+  </si>
+  <si>
+    <t>H.</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Griffith. Thanks. And I will try to be brief.    And I am going to go off on a little bit of a tangent. When I was in the Virginia State legislature and then subsequent to that, North Carolina, adopted zoning requirements that would allow med cottages to be placed in somebody's back yard if a member of their family had medical needs that required two or more procedures a day. And the estimates were that this would save a lot of money. Of course, it is not paid for by the Federal Government at this time.    And I would just ask that you all look into it because the concept is, is that you would build a hospital room in a mobile facility--basically the mobile home manufacturers love the bill for that reason because they would get this, but it would allow somebody like myself, if I were to suddenly have a major problem to stay in with my loved ones. And we had testimony in Virginia at the time that there was a young man who was 8 or 9 years old who was dying and his parents wanted to be with him, but they couldn't get a medically appropriate place for him in his rural community, and so the parents had to both quit their jobs and spend the last few months with him in a hospital room in Charlottesville, Virginia.    I think this is a concept that both saves money and is compassionate. It helps patients stay with their loved ones if they can, not necessarily in the hospital, but where they can have some treatment brought to the home where that is possible, in lieu of having a nursing home bed perhaps, but with the number of nursing home folks shouldn't be too opposed to it, and weren't at the time, because they see the market expanding so much that this niche would be there.    Just ask you to think about it. I think it is something for the future, and I would appreciate it if you all would take a look at this concept and be happy to give you any information that you need.</t>
   </si>
   <si>
@@ -559,6 +622,12 @@
     <t>412195</t>
   </si>
   <si>
+    <t>Castor</t>
+  </si>
+  <si>
+    <t>Kathy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Castor. Thank you, Mr. Chairman.    Dr. Miller, whenever we are talking about payment reform, I am always concerned that we are appropriately accounting for the complexities and differences among patients. I believe that if we move forward to reform in the post-acute care setting, we should be looking to make sure that we appropriately adjust provider payments to reflect beneficiary risk. Every--and personal conditions, and it kind of follows on what Mr. Guthrie was asking about.    Could you give us a--quickly, a little greater detail, do you believe a risk adjustment is an appropriate issue to focus on and what steps do we need to take, for example, in developing a bundled payment that would appropriately account for differences in beneficiaries?</t>
   </si>
   <si>
@@ -574,18 +643,27 @@
     <t xml:space="preserve">    Mr. Pitts [presiding]. Ladies and gentlemen, if you will take your seats, we will get started. Thank you very much for your patience with the vote, and then before that, I had to duck out for the signing, the enrollment ceremony for the SGR which is a nice little celebration.    So, we are back now with the second panel, and I will introduce them in the order that they speak. Dr. Steven Landers, president and CEO of the Visiting Nurse Association Health Group, Dr. Samuel Hammerman, chief medical officer of the LTACH Hospital Division at Select Medical Corporation, Dr. Melissa Morley, program manager of health care financing and payment at FTI International, and Mr. Leonard Russ, principal partner at Bayberry Health Care and chairman of the American Health Care Association.    Thank you each for coming. Your written testimony will be made part of the record. You will each be given 5 minutes to summarize your testimony.    And we will begin with you, Dr. Landers. You are recognized for 5 minutes for your opening statement.</t>
   </si>
   <si>
+    <t>Landers</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Landers. Thank you, Chairman Pitts, Mr. Shrader. Thank you, Mr. McKinley for your leadership on this issue and honored to be here with my home State Representative Pallone.    Today's hearing is timely and needed. Seniors are being discharged from America's hospitals and finding themselves often in a poorly coordinated and costly post-acute care continuum. Sometimes instead of order, there is disarray. Instead of teamwork and clear care paths across venues, there is fragmentation and confusion. Instead of efficiency, unnecessary costs are being borne by patients in the Medicare program.    My organization, VNA Health Group, serves some of the oldest and frailest Medicare beneficiaries. As a result, we have seen firsthand how bewildering and burdensome the current situation can be for ailing seniors and their families. I think of an example, Patient Mrs. Smith, an 82-year-old woman with arthritis, congestive heart failure, and low vision, being discharged from a hospital where she had recently been treated for a broken hip caused by a fall. She has received some information but is still in pain and sleepy, and she and her family aren't sure of what to do. Her daughter, her main care giver, isn't sure who is going to be in charge after she is discharged and who to go to with questions.    Mrs. Smith and people like her have some basic but important needs, including a comprehensive and holistic assessment of her post-hospital needs and circumstances, help accessing the care that she needs that is right for her condition, the support of a cadre of professionals like nurses and therapists and social workers and physicians, short-term assistance with activities of daily living and basic living nutrition. Her story is not atypical. People like her are being discharged from hospitals each day across our country. They are our parents, our grandparents, aunts and uncles, and soon they may be us.    If Mrs. Smith and seniors like her receive the coordinated care that they need, they will recuperate more quickly at a lower cost with lower risk of rehospitalization, but too often this isn't the case, and people aren't getting this type of care. Older Americans like Mrs. Smith don't have what they need most, which is patient-centered care coordination. This means having a partner that is truly invested in helping them get better soon, a physician and nursing team by their side across care venues, integrated electronic information systems that will help avoid adverse events.    We believe that patient-centered care coordination can be achieved through PAC bundling that adapts a successful DRG model and provides consistent coordination and navigation support to discharge beneficiaries and their families. It is for this reason that the Partnership for Home Health--for Quality Home Health is proud to support the BACPAC Act. The BACPAC model incorporates elements that we feel are important to patient-centered care coordination. A model on diagnostic related groups, which have been in use for over 30 years, creates condition related groups to align interests and improve outcomes, ensures patient choice, network adequacy, and the use of clinical and technological innovations to improve care. It uses powerful risk and saving incentives to prioritize high quality coordinated care, and it strengthens program integrity because no coordinator is going to want a bad or fraudulent actor to be in its network. It aligns with Congress' passage of the IMPACT Act, which created a unified PAC assessment tool and achieves significant savings without cutting any providers' rates or increase in costs for any seniors.    There are many complex issues to be addressed, and as you do, please keep seniors like Mrs. Smith in mind so that Medicare post-acute care policy will not only be improved but work for the most vulnerable among us. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Pitts. Dr. Hammerman, you are recognized for 5 minutes for your opening statement.</t>
   </si>
   <si>
+    <t>Hammerman</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Hammerman. Good afternoon. Thank you, Chairman Pitts and Ranking Member Green for holding today's hearing on the future of American post-acute care. My name is Dr. Samuel Hammerman. I am the chief medical officer of Select Medical's long-term acute care hospital division. I oversee more than 100 LTACH hospitals in 30 States.    I will try to offer some insights today based on my experiences and based on the experiences of the company I am proud to serve as the chief medical officer for, Select Medical. Select Medical is based outside Harrisburg, Pennsylvania, and is one of the largest providers of post-acute care in the country. Besides the 100-plus LTACH hospitals, Select Medical also operates about 20 inpatient rehabilitation hospitals, and 1,000 outpatient therapy clinics. All together, Select Medical employs over 30,000 Americans in more than 30 States.    Let me begin by saying that Select Medical does not oppose a bundled post-acute payment system. With this in mind, my observations on our post-acute care systems are as follows. I want to stress that Congress has already enacted extensive legislation laying the foundation for bundled payments for post-acute services. Just last fall, Congress passed the IMPACT Act of 2014. This law will enable Congress to develop an informed and evidence-based post-acute bundling system. We were happy to support this bipartisan bicameral bill.    The IMPACT Act will provide the Centers For Medicare and Medicaid Services and Congress with the necessary information, design a post-acute care payment system that stresses quality of care while maximizing efficiencies in the delivery of care. I salute Congress for moving to a new system while ensuring continued beneficiary access to the most appropriate setting of care.    On a similar note, I would note that the Affordable Care Act of 2010 established a number of new programs. It has post-acute bundling in hundreds of sites across the country. CMS is currently in the midst of numerous pilot programs testing numerous bundle payment concepts. In short, Congress and CMS have already largely commissioned a bundled future for post-acute care.    As a physician, I feel compelled to note that the current post-acute system still has many virtues. I would still make the case that the post-acute continuum of care represents a fairly logical and rational progression of care. Yes, we need to address the issue of readmissions, and yes, policymakers should always be concerned about whether care is appropriate and medically necessary.    As a historical aside, I ask you to consider that only about 10 percent of Medicare spending is devoted to post-acute care, and please recall how the post-acute sector came into being in the first place. In 1983, the Medicare program adopted the first prospective payment system which greatly encouraged hospitals to discharge patients more quickly.    Post-acute, as we know it today, only came into existence because of the incentives todischarge quickly from general hospitals. My advice to Congress is that you try to preserve a range of post-acute providers that offer a range of services from lower acuting nursing homes to higher acuity post-acute hospitals like rehabilitation hospitals and LTACH hospitals. All play a distinct role in meeting the needs of the American patient population.    One public policy issue important to both taxpayers and post-acute providers is ensuring that patients are cared for in the most appropriate setting. We agree that patients who can be safely and effectively cared for in sometimes less costly facilities like nursing homes should not be treated and paid for in rehabilitation hospitals and LTACH hospitals.    Little more than a year ago, Select Medical supported a new law passed by Congress designed to ensure that only appropriate patients are admitted to LTACH hospitals even though the law also significantly reduced Medicare reimbursement for these facilities. My larger point is that post-acute providers will continue to work with Congress to ensure that Medicare cost savings are achieved and beneficiary access to appropriate care is preserved.    Finally, I was asked to comment specifically on Congressman McKinley's BACPAC bill. BACPAC has some positive attributes, but it does not address many core elements of a bundled payment system and leaves these to the HHS Secretary to develop. Given the BACPAC's gaps, details on payment rates, a payment process, provider network requirements, a patient assessment process, and quality standards, the BACPAC bill appears to leave a great deal of policy work to CMS. This results in unanswered questions about how BACPAC would actually work in the real world. More importantly, we have concerns about the BACPAC bill because we feel it would shortcut the comprehensive payment reform processes that Congress launched in 2010 under the ACA and built upon in 2014 with the IMPACT Act.    Rather than supporting the IMPACT plan to first test bundling in the marketplace on a small scale, BACPAC would cut short this process. And given the complexity of the issues, this process is needed to develop a reliable and evidenced-based bundled payment program for post-acute care. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Pitts. Dr. Morley, you are recognized for 5 minutes for opening statement.</t>
   </si>
   <si>
+    <t>Morley</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Morley. Chairman Pitts, Ranking Member Green, and members of the subcommittee, thank you for the opportunity to speak with you today. Since 2007, I have worked on several projects with the assistant secretary for planning and evaluation and CMS looking at both the composition of PAC episodes and the potential to predict episode spending using patient assessment data. On the basis of my experience conducting research in this area, I will highlight several relevant findings and note data and analysis required to move this payment approach forward.    The proportions of Medicare beneficiaries discharged to PAC, episode utilization and spending differs significantly across the United States because of varying practice patterns and availability of PAC providers. Differences in provider supply, particularly with regard to long-term care hospitals, LTACHs, and inpatient rehabilitation facilities are key drivers of differences in overall episode spending.    Establishing an episode-based payment requires an understanding of service use and spending on average; however, this is challenging when considering high cost but low-frequency services such as LTCH. For example, although only 2 percent of beneficiaries discharged to PAC use LTCH services, the mean cost for those using LTCH is over $35,000. When this spending is averaged over all PAC users, the mean cost is less than $700. This demonstrates a challenge in establishing a payment rate that is sufficient to accommodate the range of PAC services.    To build a payment system for PAC episodes that is risk adjusted based on patient characteristics, standardized patient assessment data are critical. However, standardized assessment data are not currently collected across PAC settings. As part of exploratory work with ASPE, we have examined the potential to develop risk adjustment models using items from the CARE data collected as part of the post-acute care payment reform demonstration.    These efforts have demonstrated the potential to use CARE items as risk adjustors to predict episode spending. Results of this work also highlight important differences in the predictive power of the models, depending on the first site of PAC. This foundational work is valuable in demonstrating the potential to use CARE items in an episode-based payment system, but additional data are needed to test the models on larger samples and to examine any differences in significant risk adjustors across diagnosis groups.    With the passage of the IMPACT Act, more data may become available over the next several years, although it is not clear at this time which items will be collected across PAC settings and whether the data that will be collected will be sufficient for the purposes of building an episode-based payment system.    Addressing the complexities of an episode-based payment system will require additional analyses as well as consideration of the results of the evaluation of the CMS Bundled Payments for Care Improvement initiative. The BPCI initiative is currently testing whether a bundled payment can reduce cost while maintaining or improving quality of care for Medicare beneficiaries.    The first evaluation report is an early assessment based on one quarter of data; however, results of analyses looking at cost shifting to the post-bundle period, beneficiary outcomes, using assessment data, and beneficiary experience using surveys are expected in future reports. Evaluation results comparing PAC service-only episodes with more integrated episodes that include both the acute hospitalization and PAC services will also provide valuable information on provider incentives across episode definitions.    The foundation of an episode-based payment system is the diagnosis groups on which payments are made. Significant analyses and input from clinicians will be needed to develop the categories of diagnoses and to define unrelated readmissions. Analyses to develop payment adjustments for geography will be important to address differences in provider supply and in cost of care across geographic areas. Consideration of provider networks and resources to support beneficiary choice will also be important.    Another consideration is related to the establishment of payments for services that continue past the end of an episode period. End-of-episode patient assessment data could not only support any post-episode service payment but also could be valuable information for ensuring quality of care. Episode-based payments offer the opportunity to coordinate across settings to provide care more efficiently and with greater beneficiary focus. The results of the ongoing analyses in the BPCI evaluation as well as availability of national standardized patient assessment data will be very important to moving this payment design forward.    Thank you for the opportunity to speak with you today.</t>
   </si>
   <si>
@@ -595,6 +673,9 @@
     <t xml:space="preserve">    Mr. Pitts. Mr. Russ, you are recognized 5 minutes for your opening statement.</t>
   </si>
   <si>
+    <t>Russ</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Russ. Well, thank you, Chairman Pitts, and thank you, Ranking Member Green, and members of the committee. I will be speaking somewhat extemporaneously and divert somewhat from my prepared remarks only because I think the testimony as written is in the record.    I would like to say at the outset, I am Len Russ, I am current chairman of the American Health Care Association. We represent nearly 13,000 skilled nursing facilities around the country, serving more than 2 million Medicare beneficiaries each year for short-term stays.    At the same time, our members are also hybrids. We also deal with the long-term population. We are also serving Medicaid patients, and I think, alluding to what was the earlier testimony today, that margin that we constantly focus on, we have to look at the real margins because we are taking care of a hybrid kind of population, all of which fall under the umbrella of our Nation's frail and elderly.    We, as skilled nursing facilities under the Medicare system, are one of the remaining sectors that still are paid basically on a fee-for-service system. The fee-for-service model that we currently enjoy is the prospective payment system. The prospective payment system has been in existence now for the better part of more than a decade, and has been subject to many criticisms, tinkering by CMS, et cetera, for the fact that there has been concern that there was an over-delivery of certain services at the expense of the under-delivery of others.    We at HCA champion the notion of healthcare reform. We believe in payment reform, and we have come up with a proposal ourselves to change payment reform for our sector as possibly a building block towards bundling. We do not believe that this current iteration of bundling is workable. We don't believe that the opening up of the conveners or third-party managers of a bundle will do anything to manage care but more likely just manage payment.    And as we have heard throughout the day, we talked about the, you know, breaking down silos, I think we need to be very mindful that by simply breaking down a payment cycle doesn't necessarily break down the care delivery system. That coordination is not always in line with simply realigning the payment system.    So having said that, we at HCA have come up with basically six principles by which we think any bundling proposal or largely any healthcare reform proposal needs to adhere to. The first is that with any post-acute care sector, the management of that bundle really should be left with the providers in the post-acute care space. So that hospitals, which the BACPAC bill would still allow to be the sort of care coordinator or third-party conveners, which might siphon off precious dollars from the payment into their own pocket, so to speak, for allegedly managing the care, whereas they are just managing the dollars, is probably not productive.    We also believe that smaller providers, and our organization represents very large corporations as well as regional companies, independent owners like myself do not have the economic muscle to be able to take on the kind of risk that would be required in order to become a care coordinator. So this is not going to present us with a level playing field.    Secondly, we want to be sure that Medicare beneficiaries have provider choice, and we see that the possibility that these kinds of bundles could raise barriers rather than break down barriers to access care. I also, for example, have five-star facilities, but I am not allowed to join certain networks in managed care right now because they don't necessarily need the access, and there are facilities that are perhaps one-star facilities who are in the network. So the notion that the quality facilities will rise to the top has so far not been borne out.    So we are not able to possibly join some of the these networks and offer the members choice, and I think any qualified excellent quality provider should be able to have access. We want additional flexibility in rendering care, not with a relaxation of regulations but being less prescriptive with how many minutes of therapy we give, with the venue of the therapy, so that we are measured on quality and outcomes.    AHCA has worked collaboratively with CMS and our partners on the Hill to make monumental strides in terms of improving quality over the last several years, both in terms of rehospitalization rates, in terms of reduction of antipsychotic medications, et cetera.    Finally, I just want to say that in any bundled system, we need a virtual bundle, not an actual bundle. A virtual bundle is something where the providers, even if they are aligned in a cohesive spectrum of care, can bill Medicare directly as opposed to leaving it to one provider to hold the dollars and have the others go to that provider to get paid. It is not necessarily a reliable payment system and it is not necessarily something that can be held accountable in the very, very thin margins and the cash flow stresses in which we operate. So with that, I will----</t>
   </si>
   <si>
@@ -700,6 +781,12 @@
     <t>400062</t>
   </si>
   <si>
+    <t>Capps</t>
+  </si>
+  <si>
+    <t>Lois</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Capps. Thank you very much. And thank you, Mr. Chairman, for holding this hearing, all of the witnesses for your testimony.    I am pleased that we are here today to discuss post-acute care. I know how important this care is for patients who need continued medical attention. From long-term hospitals to home health providers, the various post-acute care providers all, each discipline offers essential healthcare services. I think we all agree that the way that post-acute care is delivered and paid for needs improvement.    There are many elements that go into making a high quality cost-effective system, and as with any change to Medicare, we must carefully consider the impact a policy change will have on the quality of care and access to care for patients. We first must need to gain a better understanding about how to measure quality of care across the different post-acute care settings.    Dr. Hammerman, in your testimony, you point out that the ACA put in place many important stepping stones for PAC, post-acute care reform. Currently, Medicare is testing and advancing a number of payment system reforms for post-acute care, including bundled payments and value-based purchasing.    So my first question to you, Dr. Hammerman, is to ask you to describe some of the bundling demonstrations that have been created under the ACA and what we are learning from them so far. That is just the first of a few questions I have.</t>
   </si>
   <si>
@@ -776,6 +863,9 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Pitts. The chair thanks the gentleman.    Now recognizes the gentleman from California, Mr. Cardenas, for 5 minutes for questions.</t>
+  </si>
+  <si>
+    <t>Cardenas</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Cardenas. Thank you very much, Mr. Chairman.    Mr. Russ, you are the chair of the American Healthcare Association----</t>
@@ -1154,7 +1244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H247"/>
+  <dimension ref="A1:I247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1162,7 +1252,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1184,5909 +1274,6926 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s"/>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
       <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
       <c r="H12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
       <c r="H14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
       <c r="H26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
       <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
       <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G32" t="s">
+        <v>18</v>
+      </c>
       <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G33" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G34" t="s">
+        <v>18</v>
+      </c>
       <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G35" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G36" t="s">
+        <v>18</v>
+      </c>
       <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G38" t="s">
+        <v>23</v>
+      </c>
       <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G39" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G40" t="s">
+        <v>23</v>
+      </c>
       <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G41" t="s">
+        <v>41</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G42" t="s">
+        <v>23</v>
+      </c>
       <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G43" t="s">
+        <v>41</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G44" t="s">
+        <v>23</v>
+      </c>
       <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G45" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G46" t="s">
+        <v>23</v>
+      </c>
       <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G47" t="s">
+        <v>41</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G48" t="s">
+        <v>23</v>
+      </c>
       <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G49" t="s">
+        <v>41</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G50" t="s">
+        <v>23</v>
+      </c>
       <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G51" t="s">
+        <v>41</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G52" t="s">
+        <v>23</v>
+      </c>
       <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G53" t="s">
+        <v>41</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
       <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>25</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>33</v>
+      </c>
+      <c r="G55" t="s">
+        <v>34</v>
+      </c>
       <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G56" t="s">
+        <v>41</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>25</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>33</v>
+      </c>
+      <c r="G57" t="s">
+        <v>34</v>
+      </c>
       <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G58" t="s">
+        <v>41</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G59" t="s">
+        <v>23</v>
+      </c>
       <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G60" t="s">
+        <v>41</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G61" t="s">
+        <v>23</v>
+      </c>
       <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G62" t="s">
+        <v>41</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G63" t="s">
+        <v>23</v>
+      </c>
       <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>78</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G64" t="s">
+        <v>90</v>
+      </c>
       <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G65" t="s">
+        <v>41</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>78</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G66" t="s">
+        <v>90</v>
+      </c>
       <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G67" t="s">
+        <v>41</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>78</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G68" t="s">
+        <v>90</v>
+      </c>
       <c r="H68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>20</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G69" t="s">
+        <v>41</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>78</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G70" t="s">
+        <v>90</v>
+      </c>
       <c r="H70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G71" t="s">
+        <v>41</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>78</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G72" t="s">
+        <v>90</v>
+      </c>
       <c r="H72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G73" t="s">
+        <v>41</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>78</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G74" t="s">
+        <v>90</v>
+      </c>
       <c r="H74" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G75" t="s">
+        <v>41</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>78</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G76" t="s">
+        <v>90</v>
+      </c>
       <c r="H76" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="I76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G77" t="s">
+        <v>41</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>78</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G78" t="s">
+        <v>90</v>
+      </c>
       <c r="H78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>78</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G80" t="s">
+        <v>90</v>
+      </c>
       <c r="H80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G81" t="s">
+        <v>41</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>78</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G82" t="s">
+        <v>90</v>
+      </c>
       <c r="H82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>17</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G83" t="s">
+        <v>23</v>
+      </c>
       <c r="H83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>99</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G84" t="s">
+        <v>113</v>
+      </c>
       <c r="H84" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G85" t="s">
+        <v>41</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>99</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G86" t="s">
+        <v>113</v>
+      </c>
       <c r="H86" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I86" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>20</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G87" t="s">
+        <v>41</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>99</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G88" t="s">
+        <v>113</v>
+      </c>
       <c r="H88" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I88" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>20</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G89" t="s">
+        <v>41</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>99</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G90" t="s">
+        <v>113</v>
+      </c>
       <c r="H90" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I90" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>20</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G91" t="s">
+        <v>41</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>99</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G92" t="s">
+        <v>113</v>
+      </c>
       <c r="H92" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I92" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>20</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G93" t="s">
+        <v>41</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>99</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G94" t="s">
+        <v>113</v>
+      </c>
       <c r="H94" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I94" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>20</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G95" t="s">
+        <v>41</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>99</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G96" t="s">
+        <v>113</v>
+      </c>
       <c r="H96" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I96" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>20</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G97" t="s">
+        <v>41</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>99</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G98" t="s">
+        <v>113</v>
+      </c>
       <c r="H98" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="I98" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>20</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G99" t="s">
+        <v>41</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>99</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G100" t="s">
+        <v>113</v>
+      </c>
       <c r="H100" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I100" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>17</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G101" t="s">
+        <v>23</v>
+      </c>
       <c r="H101" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I101" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>118</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G102" t="s">
+        <v>134</v>
+      </c>
       <c r="H102" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I102" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>20</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G103" t="s">
+        <v>41</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>118</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G104" t="s">
+        <v>134</v>
+      </c>
       <c r="H104" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I104" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>20</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G105" t="s">
+        <v>41</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>118</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G106" t="s">
+        <v>134</v>
+      </c>
       <c r="H106" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I106" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>20</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G107" t="s">
+        <v>41</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>118</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G108" t="s">
+        <v>134</v>
+      </c>
       <c r="H108" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I108" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>20</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G109" t="s">
+        <v>41</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>118</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G110" t="s">
+        <v>134</v>
+      </c>
       <c r="H110" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I110" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>20</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G111" t="s">
+        <v>41</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>118</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G112" t="s">
+        <v>134</v>
+      </c>
       <c r="H112" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I112" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>20</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G113" t="s">
+        <v>41</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>118</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G114" t="s">
+        <v>134</v>
+      </c>
       <c r="H114" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I114" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>20</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G115" t="s">
+        <v>41</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>118</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G116" t="s">
+        <v>134</v>
+      </c>
       <c r="H116" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I116" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>20</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G117" t="s">
+        <v>41</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>118</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G118" t="s">
+        <v>134</v>
+      </c>
       <c r="H118" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="I118" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>20</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G119" t="s">
+        <v>41</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>118</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G120" t="s">
+        <v>134</v>
+      </c>
       <c r="H120" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I120" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>20</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G121" t="s">
+        <v>41</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>118</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G122" t="s">
+        <v>134</v>
+      </c>
       <c r="H122" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I122" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>20</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G123" t="s">
+        <v>41</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>118</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G124" t="s">
+        <v>134</v>
+      </c>
       <c r="H124" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I124" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>20</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G125" t="s">
+        <v>41</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>118</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G126" t="s">
+        <v>134</v>
+      </c>
       <c r="H126" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I126" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>20</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G127" t="s">
+        <v>41</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>118</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G128" t="s">
+        <v>134</v>
+      </c>
       <c r="H128" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I128" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>20</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G129" t="s">
+        <v>41</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>118</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G130" t="s">
+        <v>134</v>
+      </c>
       <c r="H130" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I130" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>17</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G131" t="s">
+        <v>23</v>
+      </c>
       <c r="H131" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>149</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>166</v>
+      </c>
+      <c r="G132" t="s">
+        <v>167</v>
+      </c>
       <c r="H132" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>168</v>
+      </c>
+      <c r="I132" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>20</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G133" t="s">
+        <v>41</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>149</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>166</v>
+      </c>
+      <c r="G134" t="s">
+        <v>167</v>
+      </c>
       <c r="H134" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>168</v>
+      </c>
+      <c r="I134" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>20</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G135" t="s">
+        <v>41</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>149</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>166</v>
+      </c>
+      <c r="G136" t="s">
+        <v>167</v>
+      </c>
       <c r="H136" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>168</v>
+      </c>
+      <c r="I136" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>20</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G137" t="s">
+        <v>41</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>149</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>166</v>
+      </c>
+      <c r="G138" t="s">
+        <v>167</v>
+      </c>
       <c r="H138" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>168</v>
+      </c>
+      <c r="I138" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>20</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G139" t="s">
+        <v>41</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>149</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>166</v>
+      </c>
+      <c r="G140" t="s">
+        <v>167</v>
+      </c>
       <c r="H140" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>168</v>
+      </c>
+      <c r="I140" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>20</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G141" t="s">
+        <v>41</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>149</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>166</v>
+      </c>
+      <c r="G142" t="s">
+        <v>167</v>
+      </c>
       <c r="H142" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>168</v>
+      </c>
+      <c r="I142" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>20</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G143" t="s">
+        <v>41</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>149</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>166</v>
+      </c>
+      <c r="G144" t="s">
+        <v>167</v>
+      </c>
       <c r="H144" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>168</v>
+      </c>
+      <c r="I144" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>20</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G145" t="s">
+        <v>41</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>149</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>166</v>
+      </c>
+      <c r="G146" t="s">
+        <v>167</v>
+      </c>
       <c r="H146" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>168</v>
+      </c>
+      <c r="I146" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>20</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G147" t="s">
+        <v>41</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>149</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>166</v>
+      </c>
+      <c r="G148" t="s">
+        <v>167</v>
+      </c>
       <c r="H148" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>168</v>
+      </c>
+      <c r="I148" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>20</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G149" t="s">
+        <v>41</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>149</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>166</v>
+      </c>
+      <c r="G150" t="s">
+        <v>167</v>
+      </c>
       <c r="H150" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>168</v>
+      </c>
+      <c r="I150" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>20</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G151" t="s">
+        <v>41</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>149</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>166</v>
+      </c>
+      <c r="G152" t="s">
+        <v>167</v>
+      </c>
       <c r="H152" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>168</v>
+      </c>
+      <c r="I152" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>20</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G153" t="s">
+        <v>41</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>149</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>166</v>
+      </c>
+      <c r="G154" t="s">
+        <v>167</v>
+      </c>
       <c r="H154" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>168</v>
+      </c>
+      <c r="I154" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>20</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G155" t="s">
+        <v>41</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>149</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>166</v>
+      </c>
+      <c r="G156" t="s">
+        <v>167</v>
+      </c>
       <c r="H156" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>168</v>
+      </c>
+      <c r="I156" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>17</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G157" t="s">
+        <v>23</v>
+      </c>
       <c r="H157" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I157" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>175</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>194</v>
+      </c>
+      <c r="G158" t="s">
+        <v>195</v>
+      </c>
       <c r="H158" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>196</v>
+      </c>
+      <c r="I158" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>20</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G159" t="s">
+        <v>41</v>
+      </c>
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>175</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>194</v>
+      </c>
+      <c r="G160" t="s">
+        <v>195</v>
+      </c>
       <c r="H160" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>196</v>
+      </c>
+      <c r="I160" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G161" t="s">
+        <v>23</v>
+      </c>
       <c r="H161" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I161" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>180</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>201</v>
+      </c>
+      <c r="G162" t="s">
+        <v>202</v>
+      </c>
       <c r="H162" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>203</v>
+      </c>
+      <c r="I162" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>20</v>
-      </c>
-      <c r="G163" t="s"/>
-      <c r="H163" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G163" t="s">
+        <v>41</v>
+      </c>
+      <c r="H163" t="s"/>
+      <c r="I163" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>180</v>
-      </c>
-      <c r="G164" t="s"/>
+        <v>201</v>
+      </c>
+      <c r="G164" t="s">
+        <v>202</v>
+      </c>
       <c r="H164" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>203</v>
+      </c>
+      <c r="I164" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>17</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G165" t="s">
+        <v>23</v>
+      </c>
       <c r="H165" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I165" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>11</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G166" t="s">
+        <v>13</v>
+      </c>
       <c r="H166" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I166" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>20</v>
-      </c>
-      <c r="G167" t="s"/>
-      <c r="H167" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G167" t="s">
+        <v>209</v>
+      </c>
+      <c r="H167" t="s"/>
+      <c r="I167" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>11</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G168" t="s">
+        <v>13</v>
+      </c>
       <c r="H168" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I168" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>11</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G169" t="s">
+        <v>13</v>
+      </c>
       <c r="H169" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I169" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>20</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G170" t="s">
+        <v>212</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>11</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G171" t="s">
+        <v>13</v>
+      </c>
       <c r="H171" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I171" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>11</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G172" t="s">
+        <v>13</v>
+      </c>
       <c r="H172" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I172" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>20</v>
-      </c>
-      <c r="G173" t="s"/>
-      <c r="H173" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G173" t="s">
+        <v>215</v>
+      </c>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>11</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G174" t="s">
+        <v>13</v>
+      </c>
       <c r="H174" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I174" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G175" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G175" t="s">
+        <v>13</v>
+      </c>
       <c r="H175" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I175" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>20</v>
-      </c>
-      <c r="G176" t="s"/>
-      <c r="H176" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G176" t="s">
+        <v>219</v>
+      </c>
+      <c r="H176" t="s"/>
+      <c r="I176" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>11</v>
-      </c>
-      <c r="G177" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G177" t="s">
+        <v>13</v>
+      </c>
       <c r="H177" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I177" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>11</v>
-      </c>
-      <c r="G178" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G178" t="s">
+        <v>13</v>
+      </c>
       <c r="H178" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I178" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>20</v>
-      </c>
-      <c r="G179" t="s"/>
-      <c r="H179" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G179" t="s">
+        <v>215</v>
+      </c>
+      <c r="H179" t="s"/>
+      <c r="I179" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>11</v>
-      </c>
-      <c r="G180" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G180" t="s">
+        <v>13</v>
+      </c>
       <c r="H180" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I180" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>20</v>
-      </c>
-      <c r="G181" t="s"/>
-      <c r="H181" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G181" t="s">
+        <v>215</v>
+      </c>
+      <c r="H181" t="s"/>
+      <c r="I181" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>11</v>
-      </c>
-      <c r="G182" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G182" t="s">
+        <v>13</v>
+      </c>
       <c r="H182" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I182" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>20</v>
-      </c>
-      <c r="G183" t="s"/>
-      <c r="H183" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G183" t="s">
+        <v>212</v>
+      </c>
+      <c r="H183" t="s"/>
+      <c r="I183" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>11</v>
-      </c>
-      <c r="G184" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G184" t="s">
+        <v>13</v>
+      </c>
       <c r="H184" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I184" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>20</v>
-      </c>
-      <c r="G185" t="s"/>
-      <c r="H185" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G185" t="s">
+        <v>212</v>
+      </c>
+      <c r="H185" t="s"/>
+      <c r="I185" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>11</v>
-      </c>
-      <c r="G186" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G186" t="s">
+        <v>13</v>
+      </c>
       <c r="H186" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I186" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>20</v>
-      </c>
-      <c r="G187" t="s"/>
-      <c r="H187" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G187" t="s">
+        <v>209</v>
+      </c>
+      <c r="H187" t="s"/>
+      <c r="I187" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>11</v>
-      </c>
-      <c r="G188" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G188" t="s">
+        <v>13</v>
+      </c>
       <c r="H188" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I188" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>20</v>
-      </c>
-      <c r="G189" t="s"/>
-      <c r="H189" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G189" t="s">
+        <v>219</v>
+      </c>
+      <c r="H189" t="s"/>
+      <c r="I189" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>11</v>
-      </c>
-      <c r="G190" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G190" t="s">
+        <v>13</v>
+      </c>
       <c r="H190" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I190" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>20</v>
-      </c>
-      <c r="G191" t="s"/>
-      <c r="H191" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G191" t="s">
+        <v>219</v>
+      </c>
+      <c r="H191" t="s"/>
+      <c r="I191" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>11</v>
-      </c>
-      <c r="G192" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G192" t="s">
+        <v>13</v>
+      </c>
       <c r="H192" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I192" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>14</v>
-      </c>
-      <c r="G193" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G193" t="s">
+        <v>18</v>
+      </c>
       <c r="H193" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I193" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>20</v>
-      </c>
-      <c r="G194" t="s"/>
-      <c r="H194" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G194" t="s">
+        <v>215</v>
+      </c>
+      <c r="H194" t="s"/>
+      <c r="I194" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>14</v>
-      </c>
-      <c r="G195" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G195" t="s">
+        <v>18</v>
+      </c>
       <c r="H195" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I195" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>20</v>
-      </c>
-      <c r="G196" t="s"/>
-      <c r="H196" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G196" t="s">
+        <v>215</v>
+      </c>
+      <c r="H196" t="s"/>
+      <c r="I196" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>14</v>
-      </c>
-      <c r="G197" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G197" t="s">
+        <v>18</v>
+      </c>
       <c r="H197" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I197" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>20</v>
-      </c>
-      <c r="G198" t="s"/>
-      <c r="H198" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G198" t="s">
+        <v>215</v>
+      </c>
+      <c r="H198" t="s"/>
+      <c r="I198" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>14</v>
-      </c>
-      <c r="G199" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G199" t="s">
+        <v>18</v>
+      </c>
       <c r="H199" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I199" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>20</v>
-      </c>
-      <c r="G200" t="s"/>
-      <c r="H200" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G200" t="s">
+        <v>215</v>
+      </c>
+      <c r="H200" t="s"/>
+      <c r="I200" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>14</v>
-      </c>
-      <c r="G201" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G201" t="s">
+        <v>18</v>
+      </c>
       <c r="H201" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I201" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>11</v>
-      </c>
-      <c r="G202" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G202" t="s">
+        <v>13</v>
+      </c>
       <c r="H202" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I202" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>17</v>
-      </c>
-      <c r="G203" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G203" t="s">
+        <v>23</v>
+      </c>
       <c r="H203" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I203" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>20</v>
-      </c>
-      <c r="G204" t="s"/>
-      <c r="H204" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G204" t="s">
+        <v>215</v>
+      </c>
+      <c r="H204" t="s"/>
+      <c r="I204" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>17</v>
-      </c>
-      <c r="G205" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G205" t="s">
+        <v>23</v>
+      </c>
       <c r="H205" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I205" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>20</v>
-      </c>
-      <c r="G206" t="s"/>
-      <c r="H206" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G206" t="s">
+        <v>215</v>
+      </c>
+      <c r="H206" t="s"/>
+      <c r="I206" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F207" t="s">
-        <v>17</v>
-      </c>
-      <c r="G207" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G207" t="s">
+        <v>23</v>
+      </c>
       <c r="H207" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I207" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F208" t="s">
-        <v>20</v>
-      </c>
-      <c r="G208" t="s"/>
-      <c r="H208" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G208" t="s">
+        <v>212</v>
+      </c>
+      <c r="H208" t="s"/>
+      <c r="I208" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F209" t="s">
-        <v>17</v>
-      </c>
-      <c r="G209" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G209" t="s">
+        <v>23</v>
+      </c>
       <c r="H209" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I209" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F210" t="s">
-        <v>11</v>
-      </c>
-      <c r="G210" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G210" t="s">
+        <v>13</v>
+      </c>
       <c r="H210" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I210" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F211" t="s">
-        <v>227</v>
-      </c>
-      <c r="G211" t="s"/>
+        <v>254</v>
+      </c>
+      <c r="G211" t="s">
+        <v>255</v>
+      </c>
       <c r="H211" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>256</v>
+      </c>
+      <c r="I211" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F212" t="s">
-        <v>20</v>
-      </c>
-      <c r="G212" t="s"/>
-      <c r="H212" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G212" t="s">
+        <v>212</v>
+      </c>
+      <c r="H212" t="s"/>
+      <c r="I212" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F213" t="s">
-        <v>227</v>
-      </c>
-      <c r="G213" t="s"/>
+        <v>254</v>
+      </c>
+      <c r="G213" t="s">
+        <v>255</v>
+      </c>
       <c r="H213" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>256</v>
+      </c>
+      <c r="I213" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F214" t="s">
-        <v>20</v>
-      </c>
-      <c r="G214" t="s"/>
-      <c r="H214" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G214" t="s">
+        <v>212</v>
+      </c>
+      <c r="H214" t="s"/>
+      <c r="I214" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F215" t="s">
-        <v>227</v>
-      </c>
-      <c r="G215" t="s"/>
+        <v>254</v>
+      </c>
+      <c r="G215" t="s">
+        <v>255</v>
+      </c>
       <c r="H215" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>256</v>
+      </c>
+      <c r="I215" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F216" t="s">
-        <v>20</v>
-      </c>
-      <c r="G216" t="s"/>
-      <c r="H216" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G216" t="s">
+        <v>212</v>
+      </c>
+      <c r="H216" t="s"/>
+      <c r="I216" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F217" t="s">
-        <v>227</v>
-      </c>
-      <c r="G217" t="s"/>
+        <v>254</v>
+      </c>
+      <c r="G217" t="s">
+        <v>255</v>
+      </c>
       <c r="H217" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>256</v>
+      </c>
+      <c r="I217" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E218" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F218" t="s">
-        <v>20</v>
-      </c>
-      <c r="G218" t="s"/>
-      <c r="H218" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G218" t="s">
+        <v>212</v>
+      </c>
+      <c r="H218" t="s"/>
+      <c r="I218" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D219" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E219" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F219" t="s">
-        <v>20</v>
-      </c>
-      <c r="G219" t="s"/>
-      <c r="H219" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G219" t="s">
+        <v>215</v>
+      </c>
+      <c r="H219" t="s"/>
+      <c r="I219" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E220" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F220" t="s">
-        <v>227</v>
-      </c>
-      <c r="G220" t="s"/>
+        <v>254</v>
+      </c>
+      <c r="G220" t="s">
+        <v>255</v>
+      </c>
       <c r="H220" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>256</v>
+      </c>
+      <c r="I220" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E221" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F221" t="s">
-        <v>20</v>
-      </c>
-      <c r="G221" t="s"/>
-      <c r="H221" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G221" t="s">
+        <v>209</v>
+      </c>
+      <c r="H221" t="s"/>
+      <c r="I221" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E222" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F222" t="s">
-        <v>227</v>
-      </c>
-      <c r="G222" t="s"/>
+        <v>254</v>
+      </c>
+      <c r="G222" t="s">
+        <v>255</v>
+      </c>
       <c r="H222" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+        <v>256</v>
+      </c>
+      <c r="I222" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E223" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F223" t="s">
-        <v>20</v>
-      </c>
-      <c r="G223" t="s"/>
-      <c r="H223" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G223" t="s">
+        <v>209</v>
+      </c>
+      <c r="H223" t="s"/>
+      <c r="I223" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E224" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F224" t="s">
-        <v>227</v>
-      </c>
-      <c r="G224" t="s"/>
+        <v>254</v>
+      </c>
+      <c r="G224" t="s">
+        <v>255</v>
+      </c>
       <c r="H224" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>256</v>
+      </c>
+      <c r="I224" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D225" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E225" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F225" t="s">
-        <v>11</v>
-      </c>
-      <c r="G225" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G225" t="s">
+        <v>13</v>
+      </c>
       <c r="H225" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I225" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D226" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E226" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F226" t="s">
-        <v>227</v>
-      </c>
-      <c r="G226" t="s"/>
+        <v>254</v>
+      </c>
+      <c r="G226" t="s">
+        <v>255</v>
+      </c>
       <c r="H226" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>256</v>
+      </c>
+      <c r="I226" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D227" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E227" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F227" t="s">
-        <v>20</v>
-      </c>
-      <c r="G227" t="s"/>
-      <c r="H227" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G227" t="s">
+        <v>219</v>
+      </c>
+      <c r="H227" t="s"/>
+      <c r="I227" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D228" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E228" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F228" t="s">
-        <v>227</v>
-      </c>
-      <c r="G228" t="s"/>
+        <v>254</v>
+      </c>
+      <c r="G228" t="s">
+        <v>255</v>
+      </c>
       <c r="H228" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+        <v>256</v>
+      </c>
+      <c r="I228" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D229" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E229" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F229" t="s">
-        <v>20</v>
-      </c>
-      <c r="G229" t="s"/>
-      <c r="H229" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G229" t="s">
+        <v>219</v>
+      </c>
+      <c r="H229" t="s"/>
+      <c r="I229" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D230" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E230" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F230" t="s">
-        <v>227</v>
-      </c>
-      <c r="G230" t="s"/>
+        <v>254</v>
+      </c>
+      <c r="G230" t="s">
+        <v>255</v>
+      </c>
       <c r="H230" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+        <v>256</v>
+      </c>
+      <c r="I230" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D231" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E231" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F231" t="s">
-        <v>11</v>
-      </c>
-      <c r="G231" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G231" t="s">
+        <v>13</v>
+      </c>
       <c r="H231" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I231" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D232" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E232" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F232" t="s">
-        <v>20</v>
-      </c>
-      <c r="G232" t="s"/>
-      <c r="H232" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G232" t="s">
+        <v>28</v>
+      </c>
+      <c r="H232" t="s"/>
+      <c r="I232" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="A233" s="1" t="n">
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D233" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E233" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F233" t="s">
-        <v>20</v>
-      </c>
-      <c r="G233" t="s"/>
-      <c r="H233" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G233" t="s">
+        <v>209</v>
+      </c>
+      <c r="H233" t="s"/>
+      <c r="I233" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="A234" s="1" t="n">
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D234" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E234" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F234" t="s">
-        <v>20</v>
-      </c>
-      <c r="G234" t="s"/>
-      <c r="H234" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G234" t="s">
+        <v>28</v>
+      </c>
+      <c r="H234" t="s"/>
+      <c r="I234" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="A235" s="1" t="n">
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D235" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E235" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F235" t="s">
-        <v>20</v>
-      </c>
-      <c r="G235" t="s"/>
-      <c r="H235" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G235" t="s">
+        <v>209</v>
+      </c>
+      <c r="H235" t="s"/>
+      <c r="I235" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="A236" s="1" t="n">
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D236" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E236" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F236" t="s">
-        <v>20</v>
-      </c>
-      <c r="G236" t="s"/>
-      <c r="H236" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G236" t="s">
+        <v>28</v>
+      </c>
+      <c r="H236" t="s"/>
+      <c r="I236" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="A237" s="1" t="n">
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D237" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E237" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F237" t="s">
-        <v>11</v>
-      </c>
-      <c r="G237" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G237" t="s">
+        <v>13</v>
+      </c>
       <c r="H237" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I237" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
       <c r="A238" s="1" t="n">
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D238" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E238" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F238" t="s">
-        <v>20</v>
-      </c>
-      <c r="G238" t="s"/>
-      <c r="H238" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G238" t="s">
+        <v>283</v>
+      </c>
+      <c r="H238" t="s"/>
+      <c r="I238" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
       <c r="A239" s="1" t="n">
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D239" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E239" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F239" t="s">
-        <v>20</v>
-      </c>
-      <c r="G239" t="s"/>
-      <c r="H239" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G239" t="s">
+        <v>219</v>
+      </c>
+      <c r="H239" t="s"/>
+      <c r="I239" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="A240" s="1" t="n">
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D240" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E240" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F240" t="s">
-        <v>20</v>
-      </c>
-      <c r="G240" t="s"/>
-      <c r="H240" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G240" t="s">
+        <v>283</v>
+      </c>
+      <c r="H240" t="s"/>
+      <c r="I240" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
       <c r="A241" s="1" t="n">
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D241" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E241" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F241" t="s">
-        <v>20</v>
-      </c>
-      <c r="G241" t="s"/>
-      <c r="H241" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G241" t="s">
+        <v>219</v>
+      </c>
+      <c r="H241" t="s"/>
+      <c r="I241" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
       <c r="A242" s="1" t="n">
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D242" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E242" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F242" t="s">
-        <v>20</v>
-      </c>
-      <c r="G242" t="s"/>
-      <c r="H242" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G242" t="s">
+        <v>283</v>
+      </c>
+      <c r="H242" t="s"/>
+      <c r="I242" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="A243" s="1" t="n">
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D243" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E243" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F243" t="s">
-        <v>20</v>
-      </c>
-      <c r="G243" t="s"/>
-      <c r="H243" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G243" t="s">
+        <v>219</v>
+      </c>
+      <c r="H243" t="s"/>
+      <c r="I243" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
       <c r="A244" s="1" t="n">
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D244" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E244" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F244" t="s">
-        <v>20</v>
-      </c>
-      <c r="G244" t="s"/>
-      <c r="H244" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G244" t="s">
+        <v>283</v>
+      </c>
+      <c r="H244" t="s"/>
+      <c r="I244" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
       <c r="A245" s="1" t="n">
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D245" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E245" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F245" t="s">
-        <v>20</v>
-      </c>
-      <c r="G245" t="s"/>
-      <c r="H245" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G245" t="s">
+        <v>219</v>
+      </c>
+      <c r="H245" t="s"/>
+      <c r="I245" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
       <c r="A246" s="1" t="n">
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D246" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E246" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F246" t="s">
-        <v>20</v>
-      </c>
-      <c r="G246" t="s"/>
-      <c r="H246" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G246" t="s">
+        <v>283</v>
+      </c>
+      <c r="H246" t="s"/>
+      <c r="I246" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
       <c r="A247" s="1" t="n">
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D247" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E247" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F247" t="s">
-        <v>11</v>
-      </c>
-      <c r="G247" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G247" t="s">
+        <v>13</v>
+      </c>
       <c r="H247" t="s">
-        <v>263</v>
+        <v>14</v>
+      </c>
+      <c r="I247" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
